--- a/Coaches_carreers/Coaches_xValues/Bruno Lage.xlsx
+++ b/Coaches_carreers/Coaches_xValues/Bruno Lage.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bruno Lage.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="78">
   <si>
     <t>Season</t>
   </si>
@@ -109,6 +109,9 @@
     <t>ProbA</t>
   </si>
   <si>
+    <t>Team</t>
+  </si>
+  <si>
     <t>reference</t>
   </si>
   <si>
@@ -178,12 +181,24 @@
     <t>P1</t>
   </si>
   <si>
+    <t>Benfica</t>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
+    <t>Guimaraes</t>
+  </si>
+  <si>
+    <t>Sp Lisbon</t>
+  </si>
+  <si>
+    <t>Aves</t>
+  </si>
+  <si>
     <t>Porto</t>
   </si>
   <si>
-    <t>Benfica</t>
-  </si>
-  <si>
     <t>Moreirense</t>
   </si>
   <si>
@@ -193,18 +208,9 @@
     <t>Tondela</t>
   </si>
   <si>
-    <t>Santa Clara</t>
-  </si>
-  <si>
     <t>Boavista</t>
   </si>
   <si>
-    <t>Guimaraes</t>
-  </si>
-  <si>
-    <t>Sp Lisbon</t>
-  </si>
-  <si>
     <t>Pacos Ferreira</t>
   </si>
   <si>
@@ -220,6 +226,12 @@
     <t>Rio Ave</t>
   </si>
   <si>
+    <t>Nacional</t>
+  </si>
+  <si>
+    <t>Chaves</t>
+  </si>
+  <si>
     <t>Belenenses</t>
   </si>
   <si>
@@ -229,16 +241,13 @@
     <t>Famalicao</t>
   </si>
   <si>
-    <t>Aves</t>
+    <t>H</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>H</t>
   </si>
 </sst>
 </file>
@@ -600,522 +609,525 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AZ37"/>
+  <dimension ref="A1:AZ45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:52">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:52">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="2">
-        <v>43526</v>
+        <v>54</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43471</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" t="s">
-        <v>55</v>
+        <v>69</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
-        <v>72</v>
+      <c r="H2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
       </c>
       <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>73</v>
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2">
+        <v>11</v>
       </c>
       <c r="N2">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="O2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q2">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="R2">
+        <v>19</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <v>3</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>1.22</v>
+      </c>
+      <c r="Z2">
+        <v>6</v>
+      </c>
+      <c r="AA2">
         <v>12</v>
       </c>
-      <c r="S2">
-        <v>21</v>
-      </c>
-      <c r="T2">
-        <v>2</v>
-      </c>
-      <c r="U2">
-        <v>6</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>2.25</v>
-      </c>
-      <c r="AA2">
-        <v>3.2</v>
-      </c>
       <c r="AB2">
-        <v>3.3</v>
+        <v>0.023224043715847</v>
       </c>
       <c r="AC2">
-        <v>0.01999158249158247</v>
+        <v>0.796448087431694</v>
       </c>
       <c r="AD2">
-        <v>0.424452861952862</v>
+        <v>0.1434426229508197</v>
       </c>
       <c r="AE2">
-        <v>0.2925084175084176</v>
-      </c>
-      <c r="AF2">
-        <v>0.2830387205387206</v>
+        <v>0.06010928961748632</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>55</v>
       </c>
       <c r="AG2">
-        <v>0.42</v>
+        <v>0.8</v>
       </c>
       <c r="AH2">
-        <v>1.57801060270304</v>
+        <v>2.569400010218955</v>
       </c>
       <c r="AI2">
-        <v>1.135302541244763</v>
+        <v>0.2930782281356768</v>
       </c>
       <c r="AJ2">
-        <v>2.48846495119787</v>
+        <v>3.293733681462141</v>
       </c>
       <c r="AK2">
-        <v>1.396960958296362</v>
+        <v>2.663185378590078</v>
       </c>
       <c r="AL2">
-        <v>1.091503992901508</v>
+        <v>0.6305483028720626</v>
       </c>
       <c r="AM2">
-        <v>0.6076539101497505</v>
+        <v>1.221932114882507</v>
       </c>
       <c r="AN2">
-        <v>0.4727676095396561</v>
+        <v>0.283289817232376</v>
       </c>
       <c r="AO2">
-        <v>12.29504785684561</v>
+        <v>17.78403755868545</v>
       </c>
       <c r="AP2">
-        <v>10.04723262588431</v>
+        <v>7.288732394366197</v>
       </c>
       <c r="AQ2">
-        <v>5.291719209751997</v>
+        <v>8.19811320754717</v>
       </c>
       <c r="AR2">
-        <v>4.258091635140816</v>
+        <v>2.884433962264151</v>
       </c>
       <c r="AS2">
-        <v>7.003328647093613</v>
+        <v>9.585924351138281</v>
       </c>
       <c r="AT2">
-        <v>5.789140990743495</v>
+        <v>4.404298432102046</v>
       </c>
       <c r="AU2">
-        <v>12.77041895895049</v>
+        <v>10.84964200477327</v>
       </c>
       <c r="AV2">
-        <v>13.41112991959374</v>
+        <v>12.6563245823389</v>
       </c>
       <c r="AW2">
-        <v>1.556141062018646</v>
+        <v>1.182669789227166</v>
       </c>
       <c r="AX2">
-        <v>1.911430887717876</v>
+        <v>1.892271662763466</v>
       </c>
       <c r="AY2">
-        <v>0.08492095662748277</v>
+        <v>0.03747072599531616</v>
       </c>
       <c r="AZ2">
-        <v>0.1323469801378192</v>
+        <v>0.1334894613583138</v>
       </c>
     </row>
     <row r="3" spans="1:52">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="2">
-        <v>43535</v>
+        <v>54</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43476</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
       </c>
       <c r="E3" t="s">
         <v>55</v>
       </c>
-      <c r="F3" t="s">
-        <v>68</v>
+      <c r="F3">
+        <v>0</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>73</v>
+      <c r="H3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>73</v>
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3">
+        <v>7</v>
       </c>
       <c r="N3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>13</v>
+      </c>
+      <c r="R3">
+        <v>16</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
         <v>8</v>
       </c>
-      <c r="P3">
-        <v>2</v>
-      </c>
-      <c r="Q3">
-        <v>3</v>
-      </c>
-      <c r="R3">
-        <v>12</v>
-      </c>
-      <c r="S3">
-        <v>15</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>5</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
       <c r="Z3">
-        <v>1.18</v>
+        <v>4.75</v>
       </c>
       <c r="AA3">
-        <v>7</v>
+        <v>1.36</v>
       </c>
       <c r="AB3">
-        <v>13</v>
+        <v>0.02360681114551078</v>
       </c>
       <c r="AC3">
-        <v>0.02241261563295464</v>
+        <v>0.1013931888544892</v>
       </c>
       <c r="AD3">
-        <v>0.8250450114856895</v>
+        <v>0.1869195046439629</v>
       </c>
       <c r="AE3">
-        <v>0.1204445272241882</v>
-      </c>
-      <c r="AF3">
-        <v>0.05451046129012228</v>
+        <v>0.711687306501548</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>55</v>
       </c>
       <c r="AG3">
-        <v>0.82</v>
+        <v>0.1</v>
       </c>
       <c r="AH3">
-        <v>2.61850435052637</v>
+        <v>0.5357925064723035</v>
       </c>
       <c r="AI3">
-        <v>0.2569212437134302</v>
+        <v>2.255039983514555</v>
       </c>
       <c r="AJ3">
-        <v>3.361305361305361</v>
+        <v>2.933588761174968</v>
       </c>
       <c r="AK3">
-        <v>2.75990675990676</v>
+        <v>0.8671775223499362</v>
       </c>
       <c r="AL3">
-        <v>0.6013986013986014</v>
+        <v>2.066411238825032</v>
       </c>
       <c r="AM3">
-        <v>1.252913752913753</v>
+        <v>0.3997445721583653</v>
       </c>
       <c r="AN3">
-        <v>0.2575757575757576</v>
+        <v>0.9080459770114943</v>
       </c>
       <c r="AO3">
-        <v>18.01401869158878</v>
+        <v>9.266666666666667</v>
       </c>
       <c r="AP3">
-        <v>7.226635514018692</v>
+        <v>14.42222222222222</v>
       </c>
       <c r="AQ3">
-        <v>8.040094339622641</v>
+        <v>3.596412556053812</v>
       </c>
       <c r="AR3">
-        <v>2.721698113207547</v>
+        <v>6.2152466367713</v>
       </c>
       <c r="AS3">
-        <v>9.97392435196614</v>
+        <v>5.670254110612856</v>
       </c>
       <c r="AT3">
-        <v>4.504937400811146</v>
+        <v>8.20697558545092</v>
       </c>
       <c r="AU3">
-        <v>11.51932367149758</v>
+        <v>13.77551020408163</v>
       </c>
       <c r="AV3">
-        <v>12.93236714975845</v>
+        <v>12.10204081632653</v>
       </c>
       <c r="AW3">
-        <v>1.069767441860465</v>
+        <v>1.971238938053097</v>
       </c>
       <c r="AX3">
-        <v>1.876744186046512</v>
+        <v>1.696902654867257</v>
       </c>
       <c r="AY3">
-        <v>0.04651162790697674</v>
+        <v>0.1393805309734513</v>
       </c>
       <c r="AZ3">
-        <v>0.1372093023255814</v>
+        <v>0.09070796460176991</v>
       </c>
     </row>
     <row r="4" spans="1:52">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" t="s">
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="2">
-        <v>43541</v>
+        <v>54</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43483</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" t="s">
-        <v>55</v>
+        <v>55</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4" t="s">
-        <v>72</v>
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4" t="s">
-        <v>72</v>
+      <c r="K4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
       </c>
       <c r="N4">
         <v>11</v>
       </c>
       <c r="O4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P4">
         <v>3</v>
       </c>
       <c r="Q4">
+        <v>13</v>
+      </c>
+      <c r="R4">
+        <v>11</v>
+      </c>
+      <c r="S4">
         <v>4</v>
       </c>
-      <c r="R4">
-        <v>17</v>
-      </c>
-      <c r="S4">
-        <v>10</v>
-      </c>
       <c r="T4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -1123,178 +1135,178 @@
       <c r="V4">
         <v>0</v>
       </c>
-      <c r="W4">
-        <v>0</v>
+      <c r="Y4">
+        <v>4.5</v>
       </c>
       <c r="Z4">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="AA4">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="AB4">
-        <v>1.5</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="AC4">
-        <v>0.01984126984126984</v>
+        <v>0.201058201058201</v>
       </c>
       <c r="AD4">
-        <v>0.123015873015873</v>
+        <v>0.2645502645502645</v>
       </c>
       <c r="AE4">
-        <v>0.2301587301587301</v>
-      </c>
-      <c r="AF4">
-        <v>0.6468253968253967</v>
+        <v>0.5343915343915344</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>55</v>
       </c>
       <c r="AG4">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="AH4">
-        <v>0.6141496649014346</v>
+        <v>0.890402680627888</v>
       </c>
       <c r="AI4">
-        <v>2.159329896897765</v>
+        <v>1.848240697110522</v>
       </c>
       <c r="AJ4">
-        <v>2.816872427983539</v>
+        <v>2.706509539842873</v>
       </c>
       <c r="AK4">
-        <v>0.845679012345679</v>
+        <v>1.01010101010101</v>
       </c>
       <c r="AL4">
-        <v>1.97119341563786</v>
+        <v>1.696408529741863</v>
       </c>
       <c r="AM4">
-        <v>0.3919753086419753</v>
+        <v>0.4404494382022472</v>
       </c>
       <c r="AN4">
-        <v>0.8744855967078189</v>
+        <v>0.7460674157303371</v>
       </c>
       <c r="AO4">
-        <v>9.316814159292035</v>
+        <v>10.26507276507276</v>
       </c>
       <c r="AP4">
-        <v>14.09026548672566</v>
+        <v>13.02390852390852</v>
       </c>
       <c r="AQ4">
-        <v>3.729537366548043</v>
+        <v>4.048319327731092</v>
       </c>
       <c r="AR4">
-        <v>6.366548042704626</v>
+        <v>5.60609243697479</v>
       </c>
       <c r="AS4">
-        <v>5.587276792743991</v>
+        <v>6.216753437341668</v>
       </c>
       <c r="AT4">
-        <v>7.723717444021033</v>
+        <v>7.417816086933731</v>
       </c>
       <c r="AU4">
-        <v>13.76036036036036</v>
+        <v>13.22362869198312</v>
       </c>
       <c r="AV4">
-        <v>12.53693693693694</v>
+        <v>12.78586497890295</v>
       </c>
       <c r="AW4">
-        <v>2</v>
+        <v>1.844221105527638</v>
       </c>
       <c r="AX4">
-        <v>1.753086419753086</v>
+        <v>1.798994974874372</v>
       </c>
       <c r="AY4">
-        <v>0.08465608465608465</v>
+        <v>0.1206030150753769</v>
       </c>
       <c r="AZ4">
-        <v>0.08465608465608465</v>
+        <v>0.1165829145728643</v>
       </c>
     </row>
     <row r="5" spans="1:52">
-      <c r="A5" s="1">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43494</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="2">
-        <v>43554</v>
-      </c>
-      <c r="E5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>73</v>
-      </c>
       <c r="N5">
+        <v>7</v>
+      </c>
+      <c r="O5">
+        <v>9</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>17</v>
+      </c>
+      <c r="R5">
         <v>15</v>
       </c>
-      <c r="O5">
-        <v>12</v>
-      </c>
-      <c r="P5">
-        <v>4</v>
-      </c>
-      <c r="Q5">
-        <v>4</v>
-      </c>
-      <c r="R5">
-        <v>9</v>
-      </c>
       <c r="S5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>1</v>
       </c>
       <c r="U5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
-      <c r="W5">
-        <v>0</v>
+      <c r="Y5">
+        <v>1.16</v>
       </c>
       <c r="Z5">
-        <v>1.14</v>
+        <v>7</v>
       </c>
       <c r="AA5">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="AB5">
-        <v>17</v>
+        <v>0.023864258347017</v>
       </c>
       <c r="AC5">
-        <v>0.02311661506707948</v>
+        <v>0.8382047071702244</v>
       </c>
       <c r="AD5">
-        <v>0.8540763673890609</v>
+        <v>0.1189928845101259</v>
       </c>
       <c r="AE5">
-        <v>0.1102167182662539</v>
-      </c>
-      <c r="AF5">
-        <v>0.03570691434468523</v>
+        <v>0.04280240831964967</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>55</v>
       </c>
       <c r="AG5">
         <v>0.84</v>
@@ -1358,241 +1370,241 @@
       </c>
     </row>
     <row r="6" spans="1:52">
-      <c r="A6" s="1">
-        <v>67</v>
+      <c r="A6" t="s">
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="2">
-        <v>43569</v>
+        <v>54</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43499</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
       </c>
       <c r="E6" t="s">
         <v>55</v>
       </c>
-      <c r="F6" t="s">
-        <v>65</v>
+      <c r="F6">
+        <v>2</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>74</v>
+      <c r="H6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>74</v>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6">
+        <v>17</v>
       </c>
       <c r="N6">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="O6">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="P6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="R6">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="S6">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="T6">
         <v>2</v>
       </c>
       <c r="U6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>3.1</v>
       </c>
       <c r="Z6">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="AA6">
-        <v>7</v>
+        <v>2.37</v>
       </c>
       <c r="AB6">
-        <v>11</v>
+        <v>0.02236740619754096</v>
       </c>
       <c r="AC6">
-        <v>0.02236652236652237</v>
+        <v>0.3002132389637494</v>
       </c>
       <c r="AD6">
-        <v>0.810966810966811</v>
+        <v>0.3002132389637494</v>
       </c>
       <c r="AE6">
-        <v>0.1204906204906205</v>
-      </c>
-      <c r="AF6">
-        <v>0.06854256854256854</v>
+        <v>0.3995735220725012</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>55</v>
       </c>
       <c r="AG6">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="AH6">
-        <v>2.569400010218955</v>
+        <v>1.214244522727017</v>
       </c>
       <c r="AI6">
-        <v>0.2930782281356768</v>
+        <v>1.499396953303663</v>
       </c>
       <c r="AJ6">
-        <v>3.293733681462141</v>
+        <v>2.572640781691952</v>
       </c>
       <c r="AK6">
-        <v>2.663185378590078</v>
+        <v>1.18050912831062</v>
       </c>
       <c r="AL6">
-        <v>0.6305483028720626</v>
+        <v>1.392131653381332</v>
       </c>
       <c r="AM6">
-        <v>1.221932114882507</v>
+        <v>0.5209673269873939</v>
       </c>
       <c r="AN6">
-        <v>0.283289817232376</v>
+        <v>0.6184718291741703</v>
       </c>
       <c r="AO6">
-        <v>17.78403755868545</v>
+        <v>11.14920071047957</v>
       </c>
       <c r="AP6">
-        <v>7.288732394366197</v>
+        <v>11.44404973357016</v>
       </c>
       <c r="AQ6">
-        <v>8.19811320754717</v>
+        <v>4.52572706935123</v>
       </c>
       <c r="AR6">
-        <v>2.884433962264151</v>
+        <v>4.846532438478747</v>
       </c>
       <c r="AS6">
-        <v>9.585924351138281</v>
+        <v>6.62347364112834</v>
       </c>
       <c r="AT6">
-        <v>4.404298432102046</v>
+        <v>6.597517295091413</v>
       </c>
       <c r="AU6">
-        <v>10.84964200477327</v>
+        <v>12.90081154192967</v>
       </c>
       <c r="AV6">
-        <v>12.6563245823389</v>
+        <v>13.00360685302074</v>
       </c>
       <c r="AW6">
-        <v>1.182669789227166</v>
+        <v>1.750214592274678</v>
       </c>
       <c r="AX6">
-        <v>1.892271662763466</v>
+        <v>1.831402831402831</v>
       </c>
       <c r="AY6">
-        <v>0.03747072599531616</v>
+        <v>0.09652509652509653</v>
       </c>
       <c r="AZ6">
-        <v>0.1334894613583138</v>
+        <v>0.1244101244101244</v>
       </c>
     </row>
     <row r="7" spans="1:52">
-      <c r="A7" s="1">
-        <v>25</v>
+      <c r="A7" t="s">
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="2">
-        <v>43577</v>
+        <v>54</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43506</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>74</v>
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
       </c>
       <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
-        <v>74</v>
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7">
+        <v>24</v>
       </c>
       <c r="N7">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="P7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>1.14</v>
+      </c>
+      <c r="Z7">
+        <v>7.5</v>
+      </c>
+      <c r="AA7">
         <v>17</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>3</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>1.16</v>
-      </c>
-      <c r="AA7">
-        <v>7</v>
-      </c>
       <c r="AB7">
-        <v>15</v>
+        <v>0.02311661506707948</v>
       </c>
       <c r="AC7">
-        <v>0.023864258347017</v>
+        <v>0.8540763673890609</v>
       </c>
       <c r="AD7">
-        <v>0.8382047071702244</v>
+        <v>0.1102167182662539</v>
       </c>
       <c r="AE7">
-        <v>0.1189928845101259</v>
-      </c>
-      <c r="AF7">
-        <v>0.04280240831964967</v>
+        <v>0.03570691434468523</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>55</v>
       </c>
       <c r="AG7">
         <v>0.84</v>
@@ -1656,211 +1668,211 @@
       </c>
     </row>
     <row r="8" spans="1:52">
-      <c r="A8" s="1">
-        <v>71</v>
+      <c r="A8" t="s">
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="2">
-        <v>43583</v>
+        <v>54</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43514</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" t="s">
-        <v>55</v>
+        <v>55</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
-      <c r="I8" t="s">
-        <v>72</v>
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" t="s">
-        <v>74</v>
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8">
+        <v>15</v>
       </c>
       <c r="N8">
         <v>12</v>
       </c>
       <c r="O8">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="P8">
+        <v>6</v>
+      </c>
+      <c r="Q8">
+        <v>15</v>
+      </c>
+      <c r="R8">
+        <v>16</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
         <v>3</v>
       </c>
-      <c r="Q8">
-        <v>9</v>
-      </c>
-      <c r="R8">
-        <v>14</v>
-      </c>
-      <c r="S8">
-        <v>16</v>
-      </c>
-      <c r="T8">
-        <v>4</v>
-      </c>
       <c r="U8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>7</v>
       </c>
       <c r="Z8">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="AA8">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="AB8">
-        <v>1.65</v>
+        <v>0.02255639097744363</v>
       </c>
       <c r="AC8">
-        <v>0.02106782106782109</v>
+        <v>0.1203007518796992</v>
       </c>
       <c r="AD8">
-        <v>0.1694083694083694</v>
+        <v>0.18796992481203</v>
       </c>
       <c r="AE8">
-        <v>0.2455988455988456</v>
-      </c>
-      <c r="AF8">
-        <v>0.584992784992785</v>
+        <v>0.6917293233082706</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>55</v>
       </c>
       <c r="AG8">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="AH8">
-        <v>0.7631171347433517</v>
+        <v>0.6141496649014346</v>
       </c>
       <c r="AI8">
-        <v>1.989323606801409</v>
+        <v>2.159329896897765</v>
       </c>
       <c r="AJ8">
-        <v>2.700507614213198</v>
+        <v>2.816872427983539</v>
       </c>
       <c r="AK8">
-        <v>0.9450084602368867</v>
+        <v>0.845679012345679</v>
       </c>
       <c r="AL8">
-        <v>1.755499153976311</v>
+        <v>1.97119341563786</v>
       </c>
       <c r="AM8">
-        <v>0.3908629441624366</v>
+        <v>0.3919753086419753</v>
       </c>
       <c r="AN8">
-        <v>0.7343485617597293</v>
+        <v>0.8744855967078189</v>
       </c>
       <c r="AO8">
-        <v>9.772939346811819</v>
+        <v>9.316814159292035</v>
       </c>
       <c r="AP8">
-        <v>13.65163297045101</v>
+        <v>14.09026548672566</v>
       </c>
       <c r="AQ8">
-        <v>3.689873417721519</v>
+        <v>3.729537366548043</v>
       </c>
       <c r="AR8">
-        <v>5.862341772151899</v>
+        <v>6.366548042704626</v>
       </c>
       <c r="AS8">
-        <v>6.0830659290903</v>
+        <v>5.587276792743991</v>
       </c>
       <c r="AT8">
-        <v>7.789291198299111</v>
+        <v>7.723717444021033</v>
       </c>
       <c r="AU8">
-        <v>13.45945945945946</v>
+        <v>13.76036036036036</v>
       </c>
       <c r="AV8">
-        <v>12.69475357710652</v>
+        <v>12.53693693693694</v>
       </c>
       <c r="AW8">
-        <v>2.026073619631902</v>
+        <v>2</v>
       </c>
       <c r="AX8">
-        <v>1.828220858895706</v>
+        <v>1.753086419753086</v>
       </c>
       <c r="AY8">
-        <v>0.1088957055214724</v>
+        <v>0.08465608465608465</v>
       </c>
       <c r="AZ8">
-        <v>0.1073619631901841</v>
+        <v>0.08465608465608465</v>
       </c>
     </row>
     <row r="9" spans="1:52">
-      <c r="A9" s="1">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43521</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
         <v>75</v>
       </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="2">
-        <v>43589</v>
-      </c>
-      <c r="E9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9">
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9">
+        <v>25</v>
+      </c>
+      <c r="N9">
         <v>5</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
-        <v>73</v>
-      </c>
-      <c r="N9">
-        <v>19</v>
       </c>
       <c r="O9">
         <v>11</v>
       </c>
       <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
         <v>12</v>
       </c>
-      <c r="Q9">
-        <v>5</v>
-      </c>
       <c r="R9">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="S9">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1868,726 +1880,726 @@
       <c r="V9">
         <v>0</v>
       </c>
-      <c r="W9">
-        <v>0</v>
+      <c r="Y9">
+        <v>1.14</v>
       </c>
       <c r="Z9">
-        <v>1.12</v>
+        <v>7.5</v>
       </c>
       <c r="AA9">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AB9">
-        <v>17</v>
+        <v>0.02311661506707948</v>
       </c>
       <c r="AC9">
-        <v>0.02310924369747898</v>
+        <v>0.8540763673890609</v>
       </c>
       <c r="AD9">
-        <v>0.8697478991596638</v>
+        <v>0.1102167182662539</v>
       </c>
       <c r="AE9">
-        <v>0.09453781512605043</v>
-      </c>
-      <c r="AF9">
-        <v>0.03571428571428573</v>
+        <v>0.03570691434468523</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>55</v>
       </c>
       <c r="AG9">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="AH9">
-        <v>2.704784065422714</v>
+        <v>2.667311214378226</v>
       </c>
       <c r="AI9">
-        <v>0.1949087718544399</v>
+        <v>0.2218239794846467</v>
       </c>
       <c r="AJ9">
-        <v>3.569364161849711</v>
+        <v>3.244705882352941</v>
       </c>
       <c r="AK9">
-        <v>3.040462427745665</v>
+        <v>2.670588235294117</v>
       </c>
       <c r="AL9">
-        <v>0.5289017341040463</v>
+        <v>0.5741176470588235</v>
       </c>
       <c r="AM9">
-        <v>1.260115606936416</v>
+        <v>1.2</v>
       </c>
       <c r="AN9">
-        <v>0.2398843930635838</v>
+        <v>0.2611764705882353</v>
       </c>
       <c r="AO9">
-        <v>19.30102040816326</v>
+        <v>18.04237288135593</v>
       </c>
       <c r="AP9">
-        <v>6.969387755102041</v>
+        <v>7.148305084745763</v>
       </c>
       <c r="AQ9">
-        <v>8.479591836734693</v>
+        <v>8.017021276595745</v>
       </c>
       <c r="AR9">
-        <v>2.602040816326531</v>
+        <v>2.6</v>
       </c>
       <c r="AS9">
-        <v>10.82142857142857</v>
+        <v>10.02535160476019</v>
       </c>
       <c r="AT9">
-        <v>4.36734693877551</v>
+        <v>4.548305084745763</v>
       </c>
       <c r="AU9">
-        <v>10.71354166666667</v>
+        <v>11.30603448275862</v>
       </c>
       <c r="AV9">
-        <v>12</v>
+        <v>12.87068965517241</v>
       </c>
       <c r="AW9">
-        <v>1.168367346938775</v>
+        <v>1.203389830508474</v>
       </c>
       <c r="AX9">
-        <v>1.918367346938775</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AY9">
-        <v>0.03571428571428571</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="AZ9">
-        <v>0.08673469387755102</v>
+        <v>0.1228813559322034</v>
       </c>
     </row>
     <row r="10" spans="1:52">
-      <c r="A10" s="1">
-        <v>84</v>
+      <c r="A10" t="s">
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="2">
-        <v>43603</v>
+        <v>54</v>
+      </c>
+      <c r="C10" s="2">
+        <v>43526</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
       </c>
       <c r="E10" t="s">
         <v>55</v>
       </c>
-      <c r="F10" t="s">
-        <v>59</v>
+      <c r="F10">
+        <v>1</v>
       </c>
       <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10">
+        <v>21</v>
+      </c>
+      <c r="N10">
+        <v>9</v>
+      </c>
+      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="P10">
         <v>4</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>74</v>
-      </c>
-      <c r="N10">
+      <c r="Q10">
+        <v>12</v>
+      </c>
+      <c r="R10">
         <v>21</v>
       </c>
-      <c r="O10">
-        <v>17</v>
-      </c>
-      <c r="P10">
-        <v>8</v>
-      </c>
-      <c r="Q10">
-        <v>3</v>
-      </c>
-      <c r="R10">
-        <v>10</v>
-      </c>
       <c r="S10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>2.25</v>
       </c>
       <c r="Z10">
-        <v>1.08</v>
+        <v>3.2</v>
       </c>
       <c r="AA10">
-        <v>11</v>
+        <v>3.3</v>
       </c>
       <c r="AB10">
-        <v>21</v>
+        <v>0.01999158249158247</v>
       </c>
       <c r="AC10">
-        <v>0.02148468815135477</v>
+        <v>0.424452861952862</v>
       </c>
       <c r="AD10">
-        <v>0.9044412377745711</v>
+        <v>0.2925084175084176</v>
       </c>
       <c r="AE10">
-        <v>0.06942440275773613</v>
-      </c>
-      <c r="AF10">
-        <v>0.02613435946769284</v>
+        <v>0.2830387205387206</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>55</v>
       </c>
       <c r="AG10">
-        <v>0.9</v>
+        <v>0.42</v>
       </c>
       <c r="AH10">
-        <v>2.796651563257659</v>
+        <v>1.57801060270304</v>
       </c>
       <c r="AI10">
-        <v>0.129842979251424</v>
+        <v>1.135302541244763</v>
       </c>
       <c r="AJ10">
-        <v>4.026490066225166</v>
+        <v>2.48846495119787</v>
       </c>
       <c r="AK10">
-        <v>3.384105960264901</v>
+        <v>1.396960958296362</v>
       </c>
       <c r="AL10">
-        <v>0.6423841059602649</v>
+        <v>1.091503992901508</v>
       </c>
       <c r="AM10">
-        <v>1.582781456953642</v>
+        <v>0.6076539101497505</v>
       </c>
       <c r="AN10">
-        <v>0.3377483443708609</v>
+        <v>0.4727676095396561</v>
       </c>
       <c r="AO10">
-        <v>20.42857142857143</v>
+        <v>12.29504785684561</v>
       </c>
       <c r="AP10">
-        <v>7.5</v>
+        <v>10.04723262588431</v>
       </c>
       <c r="AQ10">
-        <v>8.602040816326531</v>
+        <v>5.291719209751997</v>
       </c>
       <c r="AR10">
-        <v>2.663265306122449</v>
+        <v>4.258091635140816</v>
       </c>
       <c r="AS10">
-        <v>11.8265306122449</v>
+        <v>7.003328647093613</v>
       </c>
       <c r="AT10">
-        <v>4.836734693877551</v>
+        <v>5.789140990743495</v>
       </c>
       <c r="AU10">
-        <v>10.3298969072165</v>
+        <v>12.77041895895049</v>
       </c>
       <c r="AV10">
-        <v>11.89690721649485</v>
+        <v>13.41112991959374</v>
       </c>
       <c r="AW10">
-        <v>1.26530612244898</v>
+        <v>1.556141062018646</v>
       </c>
       <c r="AX10">
-        <v>2.061224489795918</v>
+        <v>1.911430887717876</v>
       </c>
       <c r="AY10">
-        <v>0.05102040816326531</v>
+        <v>0.08492095662748277</v>
       </c>
       <c r="AZ10">
-        <v>0.05102040816326531</v>
+        <v>0.1323469801378192</v>
       </c>
     </row>
     <row r="11" spans="1:52">
-      <c r="A11" s="1">
-        <v>32</v>
+      <c r="A11" t="s">
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="2">
-        <v>43687</v>
+        <v>54</v>
+      </c>
+      <c r="C11" s="2">
+        <v>43535</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" t="s">
-        <v>63</v>
+        <v>72</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>74</v>
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
       </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11">
+        <v>22</v>
+      </c>
+      <c r="N11">
+        <v>8</v>
+      </c>
+      <c r="O11">
         <v>2</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>74</v>
-      </c>
-      <c r="N11">
-        <v>15</v>
-      </c>
-      <c r="O11">
-        <v>7</v>
-      </c>
       <c r="P11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R11">
         <v>15</v>
       </c>
       <c r="S11">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1.18</v>
       </c>
       <c r="Z11">
-        <v>1.16</v>
+        <v>7</v>
       </c>
       <c r="AA11">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="AB11">
-        <v>13</v>
+        <v>0.02241261563295464</v>
       </c>
       <c r="AC11">
-        <v>0.02410845859121724</v>
+        <v>0.8250450114856895</v>
       </c>
       <c r="AD11">
-        <v>0.8379605069260242</v>
+        <v>0.1204445272241882</v>
       </c>
       <c r="AE11">
-        <v>0.1092248747421161</v>
-      </c>
-      <c r="AF11">
-        <v>0.05281461833185969</v>
+        <v>0.05451046129012228</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>55</v>
       </c>
       <c r="AG11">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="AH11">
-        <v>2.667311214378226</v>
+        <v>2.61850435052637</v>
       </c>
       <c r="AI11">
-        <v>0.2218239794846467</v>
+        <v>0.2569212437134302</v>
       </c>
       <c r="AJ11">
-        <v>3.244705882352941</v>
+        <v>3.361305361305361</v>
       </c>
       <c r="AK11">
-        <v>2.670588235294117</v>
+        <v>2.75990675990676</v>
       </c>
       <c r="AL11">
-        <v>0.5741176470588235</v>
+        <v>0.6013986013986014</v>
       </c>
       <c r="AM11">
-        <v>1.2</v>
+        <v>1.252913752913753</v>
       </c>
       <c r="AN11">
-        <v>0.2611764705882353</v>
+        <v>0.2575757575757576</v>
       </c>
       <c r="AO11">
-        <v>18.04237288135593</v>
+        <v>18.01401869158878</v>
       </c>
       <c r="AP11">
-        <v>7.148305084745763</v>
+        <v>7.226635514018692</v>
       </c>
       <c r="AQ11">
-        <v>8.017021276595745</v>
+        <v>8.040094339622641</v>
       </c>
       <c r="AR11">
-        <v>2.6</v>
+        <v>2.721698113207547</v>
       </c>
       <c r="AS11">
-        <v>10.02535160476019</v>
+        <v>9.97392435196614</v>
       </c>
       <c r="AT11">
-        <v>4.548305084745763</v>
+        <v>4.504937400811146</v>
       </c>
       <c r="AU11">
-        <v>11.30603448275862</v>
+        <v>11.51932367149758</v>
       </c>
       <c r="AV11">
-        <v>12.87068965517241</v>
+        <v>12.93236714975845</v>
       </c>
       <c r="AW11">
-        <v>1.203389830508474</v>
+        <v>1.069767441860465</v>
       </c>
       <c r="AX11">
-        <v>2.033898305084746</v>
+        <v>1.876744186046512</v>
       </c>
       <c r="AY11">
-        <v>0.05084745762711865</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="AZ11">
-        <v>0.1228813559322034</v>
+        <v>0.1372093023255814</v>
       </c>
     </row>
     <row r="12" spans="1:52">
-      <c r="A12" s="1">
-        <v>88</v>
+      <c r="A12" t="s">
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="2">
-        <v>43701</v>
+        <v>54</v>
+      </c>
+      <c r="C12" s="2">
+        <v>43541</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
       </c>
       <c r="E12" t="s">
         <v>55</v>
       </c>
-      <c r="F12" t="s">
-        <v>54</v>
+      <c r="F12">
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>2</v>
       </c>
-      <c r="I12" t="s">
-        <v>72</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12" t="s">
-        <v>72</v>
+      <c r="K12" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12">
+        <v>11</v>
       </c>
       <c r="N12">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O12">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="R12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="S12">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>7</v>
+      </c>
+      <c r="Z12">
+        <v>4</v>
+      </c>
+      <c r="AA12">
+        <v>1.5</v>
+      </c>
+      <c r="AB12">
+        <v>0.01984126984126984</v>
+      </c>
+      <c r="AC12">
+        <v>0.123015873015873</v>
+      </c>
+      <c r="AD12">
+        <v>0.2301587301587301</v>
+      </c>
+      <c r="AE12">
+        <v>0.6468253968253967</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG12">
+        <v>0.12</v>
+      </c>
+      <c r="AH12">
+        <v>0.6141496649014346</v>
+      </c>
+      <c r="AI12">
+        <v>2.159329896897765</v>
+      </c>
+      <c r="AJ12">
+        <v>2.816872427983539</v>
+      </c>
+      <c r="AK12">
+        <v>0.845679012345679</v>
+      </c>
+      <c r="AL12">
+        <v>1.97119341563786</v>
+      </c>
+      <c r="AM12">
+        <v>0.3919753086419753</v>
+      </c>
+      <c r="AN12">
+        <v>0.8744855967078189</v>
+      </c>
+      <c r="AO12">
+        <v>9.316814159292035</v>
+      </c>
+      <c r="AP12">
+        <v>14.09026548672566</v>
+      </c>
+      <c r="AQ12">
+        <v>3.729537366548043</v>
+      </c>
+      <c r="AR12">
+        <v>6.366548042704626</v>
+      </c>
+      <c r="AS12">
+        <v>5.587276792743991</v>
+      </c>
+      <c r="AT12">
+        <v>7.723717444021033</v>
+      </c>
+      <c r="AU12">
+        <v>13.76036036036036</v>
+      </c>
+      <c r="AV12">
+        <v>12.53693693693694</v>
+      </c>
+      <c r="AW12">
         <v>2</v>
       </c>
-      <c r="U12">
-        <v>5</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>1.9</v>
-      </c>
-      <c r="AA12">
-        <v>3.25</v>
-      </c>
-      <c r="AB12">
-        <v>4.33</v>
-      </c>
-      <c r="AC12">
-        <v>0.02165165979436064</v>
-      </c>
-      <c r="AD12">
-        <v>0.5046641296793235</v>
-      </c>
-      <c r="AE12">
-        <v>0.2860406478979471</v>
-      </c>
-      <c r="AF12">
-        <v>0.2092952224227294</v>
-      </c>
-      <c r="AG12">
-        <v>0.5</v>
-      </c>
-      <c r="AH12">
-        <v>1.800193731331305</v>
-      </c>
-      <c r="AI12">
-        <v>0.9268512077832276</v>
-      </c>
-      <c r="AJ12">
-        <v>2.520207988655165</v>
-      </c>
-      <c r="AK12">
-        <v>1.534270857953203</v>
-      </c>
-      <c r="AL12">
-        <v>0.9859371307019618</v>
-      </c>
-      <c r="AM12">
-        <v>0.6751359016780902</v>
-      </c>
-      <c r="AN12">
-        <v>0.4286727337194185</v>
-      </c>
-      <c r="AO12">
-        <v>12.98669114272602</v>
-      </c>
-      <c r="AP12">
-        <v>9.416704910509408</v>
-      </c>
-      <c r="AQ12">
-        <v>5.664571694599627</v>
-      </c>
-      <c r="AR12">
-        <v>4.024208566108007</v>
-      </c>
-      <c r="AS12">
-        <v>7.322119448126393</v>
-      </c>
-      <c r="AT12">
-        <v>5.3924963444014</v>
-      </c>
-      <c r="AU12">
-        <v>12.50816231343284</v>
-      </c>
-      <c r="AV12">
-        <v>13.36963619402985</v>
-      </c>
-      <c r="AW12">
-        <v>1.443801468951703</v>
-      </c>
       <c r="AX12">
-        <v>1.941019363454262</v>
+        <v>1.753086419753086</v>
       </c>
       <c r="AY12">
-        <v>0.0841308702425996</v>
+        <v>0.08465608465608465</v>
       </c>
       <c r="AZ12">
-        <v>0.1275317160026708</v>
+        <v>0.08465608465608465</v>
       </c>
     </row>
     <row r="13" spans="1:52">
-      <c r="A13" s="1">
-        <v>89</v>
+      <c r="A13" t="s">
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="2">
-        <v>43709</v>
+        <v>54</v>
+      </c>
+      <c r="C13" s="2">
+        <v>43554</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" t="s">
-        <v>55</v>
+        <v>63</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13">
+        <v>15</v>
+      </c>
+      <c r="N13">
+        <v>12</v>
+      </c>
+      <c r="O13">
         <v>4</v>
       </c>
-      <c r="I13" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" t="s">
-        <v>72</v>
-      </c>
-      <c r="N13">
-        <v>11</v>
-      </c>
-      <c r="O13">
-        <v>12</v>
-      </c>
       <c r="P13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S13">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13">
         <v>0</v>
       </c>
-      <c r="W13">
-        <v>0</v>
+      <c r="Y13">
+        <v>1.14</v>
       </c>
       <c r="Z13">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AA13">
-        <v>3.75</v>
+        <v>17</v>
       </c>
       <c r="AB13">
-        <v>1.6</v>
+        <v>0.02311661506707948</v>
       </c>
       <c r="AC13">
-        <v>0.01944444444444445</v>
+        <v>0.8540763673890609</v>
       </c>
       <c r="AD13">
-        <v>0.1472222222222222</v>
+        <v>0.1102167182662539</v>
       </c>
       <c r="AE13">
-        <v>0.2472222222222222</v>
-      </c>
-      <c r="AF13">
-        <v>0.6055555555555555</v>
+        <v>0.03570691434468523</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>55</v>
       </c>
       <c r="AG13">
-        <v>0.14</v>
+        <v>0.84</v>
       </c>
       <c r="AH13">
-        <v>0.6912121080431523</v>
+        <v>2.667311214378226</v>
       </c>
       <c r="AI13">
-        <v>2.071242936932667</v>
+        <v>0.2218239794846467</v>
       </c>
       <c r="AJ13">
-        <v>2.847413793103448</v>
+        <v>3.244705882352941</v>
       </c>
       <c r="AK13">
-        <v>0.9025862068965518</v>
+        <v>2.670588235294117</v>
       </c>
       <c r="AL13">
-        <v>1.944827586206896</v>
+        <v>0.5741176470588235</v>
       </c>
       <c r="AM13">
-        <v>0.4158757549611734</v>
+        <v>1.2</v>
       </c>
       <c r="AN13">
-        <v>0.8654012079378774</v>
+        <v>0.2611764705882353</v>
       </c>
       <c r="AO13">
-        <v>9.732503888024883</v>
+        <v>18.04237288135593</v>
       </c>
       <c r="AP13">
-        <v>13.84447900466563</v>
+        <v>7.148305084745763</v>
       </c>
       <c r="AQ13">
-        <v>3.59375</v>
+        <v>8.017021276595745</v>
       </c>
       <c r="AR13">
-        <v>6.0671875</v>
+        <v>2.6</v>
       </c>
       <c r="AS13">
-        <v>6.138753888024883</v>
+        <v>10.02535160476019</v>
       </c>
       <c r="AT13">
-        <v>7.777291504665629</v>
+        <v>4.548305084745763</v>
       </c>
       <c r="AU13">
-        <v>13.47310126582278</v>
+        <v>11.30603448275862</v>
       </c>
       <c r="AV13">
-        <v>12.28955696202532</v>
+        <v>12.87068965517241</v>
       </c>
       <c r="AW13">
-        <v>1.973886328725038</v>
+        <v>1.203389830508474</v>
       </c>
       <c r="AX13">
-        <v>1.69431643625192</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AY13">
-        <v>0.130568356374808</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="AZ13">
-        <v>0.0890937019969278</v>
+        <v>0.1228813559322034</v>
       </c>
     </row>
     <row r="14" spans="1:52">
-      <c r="A14" s="1">
-        <v>78</v>
+      <c r="A14" t="s">
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="2">
-        <v>43722</v>
+        <v>54</v>
+      </c>
+      <c r="C14" s="2">
+        <v>43569</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>74</v>
+      <c r="H14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14" t="s">
-        <v>74</v>
+      <c r="K14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14">
+        <v>20</v>
       </c>
       <c r="N14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O14">
         <v>8</v>
@@ -2596,591 +2608,591 @@
         <v>4</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="R14">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="S14">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V14">
         <v>0</v>
       </c>
-      <c r="W14">
-        <v>0</v>
+      <c r="Y14">
+        <v>1.2</v>
       </c>
       <c r="Z14">
-        <v>1.12</v>
+        <v>7</v>
       </c>
       <c r="AA14">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AB14">
-        <v>21</v>
+        <v>0.02236652236652237</v>
       </c>
       <c r="AC14">
-        <v>0.02182539682539682</v>
+        <v>0.810966810966811</v>
       </c>
       <c r="AD14">
-        <v>0.8710317460317459</v>
+        <v>0.1204906204906205</v>
       </c>
       <c r="AE14">
-        <v>0.1031746031746032</v>
-      </c>
-      <c r="AF14">
-        <v>0.0257936507936508</v>
+        <v>0.06854256854256854</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>55</v>
       </c>
       <c r="AG14">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AH14">
-        <v>2.704784065422714</v>
+        <v>2.569400010218955</v>
       </c>
       <c r="AI14">
-        <v>0.1949087718544399</v>
+        <v>0.2930782281356768</v>
       </c>
       <c r="AJ14">
-        <v>3.569364161849711</v>
+        <v>3.293733681462141</v>
       </c>
       <c r="AK14">
-        <v>3.040462427745665</v>
+        <v>2.663185378590078</v>
       </c>
       <c r="AL14">
-        <v>0.5289017341040463</v>
+        <v>0.6305483028720626</v>
       </c>
       <c r="AM14">
-        <v>1.260115606936416</v>
+        <v>1.221932114882507</v>
       </c>
       <c r="AN14">
-        <v>0.2398843930635838</v>
+        <v>0.283289817232376</v>
       </c>
       <c r="AO14">
-        <v>19.30102040816326</v>
+        <v>17.78403755868545</v>
       </c>
       <c r="AP14">
-        <v>6.969387755102041</v>
+        <v>7.288732394366197</v>
       </c>
       <c r="AQ14">
-        <v>8.479591836734693</v>
+        <v>8.19811320754717</v>
       </c>
       <c r="AR14">
-        <v>2.602040816326531</v>
+        <v>2.884433962264151</v>
       </c>
       <c r="AS14">
-        <v>10.82142857142857</v>
+        <v>9.585924351138281</v>
       </c>
       <c r="AT14">
-        <v>4.36734693877551</v>
+        <v>4.404298432102046</v>
       </c>
       <c r="AU14">
-        <v>10.71354166666667</v>
+        <v>10.84964200477327</v>
       </c>
       <c r="AV14">
-        <v>12</v>
+        <v>12.6563245823389</v>
       </c>
       <c r="AW14">
-        <v>1.168367346938775</v>
+        <v>1.182669789227166</v>
       </c>
       <c r="AX14">
-        <v>1.918367346938775</v>
+        <v>1.892271662763466</v>
       </c>
       <c r="AY14">
-        <v>0.03571428571428571</v>
+        <v>0.03747072599531616</v>
       </c>
       <c r="AZ14">
-        <v>0.08673469387755102</v>
+        <v>0.1334894613583138</v>
       </c>
     </row>
     <row r="15" spans="1:52">
-      <c r="A15" s="1">
-        <v>90</v>
+      <c r="A15" t="s">
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="2">
-        <v>43729</v>
+        <v>54</v>
+      </c>
+      <c r="C15" s="2">
+        <v>43577</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" t="s">
-        <v>55</v>
+        <v>73</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
       </c>
       <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15" t="s">
-        <v>72</v>
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" t="s">
-        <v>73</v>
+      <c r="K15" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15">
+        <v>25</v>
       </c>
       <c r="N15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="P15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R15">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="S15">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T15">
         <v>3</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
-      <c r="W15">
-        <v>0</v>
+      <c r="Y15">
+        <v>1.16</v>
       </c>
       <c r="Z15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AA15">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AB15">
-        <v>1.33</v>
+        <v>0.023864258347017</v>
       </c>
       <c r="AC15">
-        <v>0.02099693678641046</v>
+        <v>0.8382047071702244</v>
       </c>
       <c r="AD15">
-        <v>0.09011417432470065</v>
+        <v>0.1189928845101259</v>
       </c>
       <c r="AE15">
-        <v>0.1790030632135896</v>
-      </c>
-      <c r="AF15">
-        <v>0.7308827624617098</v>
+        <v>0.04280240831964967</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>55</v>
       </c>
       <c r="AG15">
-        <v>0.08</v>
+        <v>0.84</v>
       </c>
       <c r="AH15">
-        <v>0.4559059179476074</v>
+        <v>2.667311214378226</v>
       </c>
       <c r="AI15">
-        <v>2.35693778909972</v>
+        <v>0.2218239794846467</v>
       </c>
       <c r="AJ15">
-        <v>2.995348837209303</v>
+        <v>3.244705882352941</v>
       </c>
       <c r="AK15">
-        <v>0.7286821705426356</v>
+        <v>2.670588235294117</v>
       </c>
       <c r="AL15">
-        <v>2.266666666666667</v>
+        <v>0.5741176470588235</v>
       </c>
       <c r="AM15">
-        <v>0.3198757763975155</v>
+        <v>1.2</v>
       </c>
       <c r="AN15">
-        <v>0.9891304347826086</v>
+        <v>0.2611764705882353</v>
       </c>
       <c r="AO15">
-        <v>8.866323907455012</v>
+        <v>18.04237288135593</v>
       </c>
       <c r="AP15">
-        <v>14.65552699228792</v>
+        <v>7.148305084745763</v>
       </c>
       <c r="AQ15">
-        <v>3.467866323907455</v>
+        <v>8.017021276595745</v>
       </c>
       <c r="AR15">
-        <v>6.586118251928021</v>
+        <v>2.6</v>
       </c>
       <c r="AS15">
-        <v>5.398457583547557</v>
+        <v>10.02535160476019</v>
       </c>
       <c r="AT15">
-        <v>8.069408740359899</v>
+        <v>4.548305084745763</v>
       </c>
       <c r="AU15">
-        <v>13.49081364829396</v>
+        <v>11.30603448275862</v>
       </c>
       <c r="AV15">
-        <v>11.61942257217848</v>
+        <v>12.87068965517241</v>
       </c>
       <c r="AW15">
-        <v>2.124681933842239</v>
+        <v>1.203389830508474</v>
       </c>
       <c r="AX15">
-        <v>1.702290076335878</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AY15">
-        <v>0.09923664122137404</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="AZ15">
-        <v>0.07888040712468193</v>
+        <v>0.1228813559322034</v>
       </c>
     </row>
     <row r="16" spans="1:52">
-      <c r="A16" s="1">
-        <v>81</v>
+      <c r="A16" t="s">
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="2">
-        <v>43736</v>
+        <v>54</v>
+      </c>
+      <c r="C16" s="2">
+        <v>43583</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
       </c>
       <c r="E16" t="s">
         <v>55</v>
       </c>
-      <c r="F16" t="s">
-        <v>65</v>
+      <c r="F16">
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
-        <v>74</v>
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" t="s">
-        <v>73</v>
+      <c r="K16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16">
+        <v>12</v>
       </c>
       <c r="N16">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O16">
+        <v>3</v>
+      </c>
+      <c r="P16">
         <v>9</v>
       </c>
-      <c r="P16">
-        <v>3</v>
-      </c>
       <c r="Q16">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="R16">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="S16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>1</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>5.25</v>
       </c>
       <c r="Z16">
-        <v>1.12</v>
+        <v>3.75</v>
       </c>
       <c r="AA16">
-        <v>8</v>
+        <v>1.65</v>
       </c>
       <c r="AB16">
-        <v>21</v>
+        <v>0.02106782106782109</v>
       </c>
       <c r="AC16">
-        <v>0.02182539682539682</v>
+        <v>0.1694083694083694</v>
       </c>
       <c r="AD16">
-        <v>0.8710317460317459</v>
+        <v>0.2455988455988456</v>
       </c>
       <c r="AE16">
-        <v>0.1031746031746032</v>
-      </c>
-      <c r="AF16">
-        <v>0.0257936507936508</v>
+        <v>0.584992784992785</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>55</v>
       </c>
       <c r="AG16">
-        <v>0.86</v>
+        <v>0.16</v>
       </c>
       <c r="AH16">
-        <v>2.704784065422714</v>
+        <v>0.7631171347433517</v>
       </c>
       <c r="AI16">
-        <v>0.1949087718544399</v>
+        <v>1.989323606801409</v>
       </c>
       <c r="AJ16">
-        <v>3.569364161849711</v>
+        <v>2.700507614213198</v>
       </c>
       <c r="AK16">
-        <v>3.040462427745665</v>
+        <v>0.9450084602368867</v>
       </c>
       <c r="AL16">
-        <v>0.5289017341040463</v>
+        <v>1.755499153976311</v>
       </c>
       <c r="AM16">
-        <v>1.260115606936416</v>
+        <v>0.3908629441624366</v>
       </c>
       <c r="AN16">
-        <v>0.2398843930635838</v>
+        <v>0.7343485617597293</v>
       </c>
       <c r="AO16">
-        <v>19.30102040816326</v>
+        <v>9.772939346811819</v>
       </c>
       <c r="AP16">
-        <v>6.969387755102041</v>
+        <v>13.65163297045101</v>
       </c>
       <c r="AQ16">
-        <v>8.479591836734693</v>
+        <v>3.689873417721519</v>
       </c>
       <c r="AR16">
-        <v>2.602040816326531</v>
+        <v>5.862341772151899</v>
       </c>
       <c r="AS16">
-        <v>10.82142857142857</v>
+        <v>6.0830659290903</v>
       </c>
       <c r="AT16">
-        <v>4.36734693877551</v>
+        <v>7.789291198299111</v>
       </c>
       <c r="AU16">
-        <v>10.71354166666667</v>
+        <v>13.45945945945946</v>
       </c>
       <c r="AV16">
-        <v>12</v>
+        <v>12.69475357710652</v>
       </c>
       <c r="AW16">
-        <v>1.168367346938775</v>
+        <v>2.026073619631902</v>
       </c>
       <c r="AX16">
-        <v>1.918367346938775</v>
+        <v>1.828220858895706</v>
       </c>
       <c r="AY16">
-        <v>0.03571428571428571</v>
+        <v>0.1088957055214724</v>
       </c>
       <c r="AZ16">
-        <v>0.08673469387755102</v>
+        <v>0.1073619631901841</v>
       </c>
     </row>
     <row r="17" spans="1:52">
-      <c r="A17" s="1">
-        <v>98</v>
+      <c r="A17" t="s">
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="2">
-        <v>43765</v>
+        <v>54</v>
+      </c>
+      <c r="C17" s="2">
+        <v>43589</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" t="s">
-        <v>55</v>
+        <v>68</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
-        <v>72</v>
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17" t="s">
-        <v>72</v>
+      <c r="K17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M17">
+        <v>19</v>
       </c>
       <c r="N17">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O17">
         <v>12</v>
       </c>
       <c r="P17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R17">
+        <v>11</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>1.12</v>
+      </c>
+      <c r="Z17">
+        <v>8.5</v>
+      </c>
+      <c r="AA17">
         <v>17</v>
       </c>
-      <c r="S17">
-        <v>14</v>
-      </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17">
-        <v>2</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>10</v>
-      </c>
-      <c r="AA17">
-        <v>5.25</v>
-      </c>
       <c r="AB17">
-        <v>1.28</v>
+        <v>0.02310924369747898</v>
       </c>
       <c r="AC17">
-        <v>0.02390873015873011</v>
+        <v>0.8697478991596638</v>
       </c>
       <c r="AD17">
-        <v>0.07609126984126989</v>
+        <v>0.09453781512605043</v>
       </c>
       <c r="AE17">
-        <v>0.1665674603174604</v>
-      </c>
-      <c r="AF17">
-        <v>0.7573412698412699</v>
+        <v>0.03571428571428573</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>55</v>
       </c>
       <c r="AG17">
-        <v>0.08</v>
+        <v>0.86</v>
       </c>
       <c r="AH17">
-        <v>0.4559059179476074</v>
+        <v>2.704784065422714</v>
       </c>
       <c r="AI17">
-        <v>2.35693778909972</v>
+        <v>0.1949087718544399</v>
       </c>
       <c r="AJ17">
-        <v>2.995348837209303</v>
+        <v>3.569364161849711</v>
       </c>
       <c r="AK17">
-        <v>0.7286821705426356</v>
+        <v>3.040462427745665</v>
       </c>
       <c r="AL17">
-        <v>2.266666666666667</v>
+        <v>0.5289017341040463</v>
       </c>
       <c r="AM17">
-        <v>0.3198757763975155</v>
+        <v>1.260115606936416</v>
       </c>
       <c r="AN17">
-        <v>0.9891304347826086</v>
+        <v>0.2398843930635838</v>
       </c>
       <c r="AO17">
-        <v>8.866323907455012</v>
+        <v>19.30102040816326</v>
       </c>
       <c r="AP17">
-        <v>14.65552699228792</v>
+        <v>6.969387755102041</v>
       </c>
       <c r="AQ17">
-        <v>3.467866323907455</v>
+        <v>8.479591836734693</v>
       </c>
       <c r="AR17">
-        <v>6.586118251928021</v>
+        <v>2.602040816326531</v>
       </c>
       <c r="AS17">
-        <v>5.398457583547557</v>
+        <v>10.82142857142857</v>
       </c>
       <c r="AT17">
-        <v>8.069408740359899</v>
+        <v>4.36734693877551</v>
       </c>
       <c r="AU17">
-        <v>13.49081364829396</v>
+        <v>10.71354166666667</v>
       </c>
       <c r="AV17">
-        <v>11.61942257217848</v>
+        <v>12</v>
       </c>
       <c r="AW17">
-        <v>2.124681933842239</v>
+        <v>1.168367346938775</v>
       </c>
       <c r="AX17">
-        <v>1.702290076335878</v>
+        <v>1.918367346938775</v>
       </c>
       <c r="AY17">
-        <v>0.09923664122137404</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="AZ17">
-        <v>0.07888040712468193</v>
+        <v>0.08673469387755102</v>
       </c>
     </row>
     <row r="18" spans="1:52">
-      <c r="A18" s="1">
-        <v>39</v>
+      <c r="A18" t="s">
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="2">
-        <v>43768</v>
+        <v>54</v>
+      </c>
+      <c r="C18" s="2">
+        <v>43603</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" t="s">
-        <v>66</v>
+        <v>56</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>4</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>74</v>
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
       </c>
       <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18" t="s">
-        <v>74</v>
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18">
+        <v>21</v>
       </c>
       <c r="N18">
         <v>17</v>
@@ -3189,2403 +3201,2403 @@
         <v>8</v>
       </c>
       <c r="P18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R18">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="S18">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="T18">
         <v>1</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
-      <c r="W18">
-        <v>0</v>
+      <c r="Y18">
+        <v>1.08</v>
       </c>
       <c r="Z18">
-        <v>1.16</v>
+        <v>11</v>
       </c>
       <c r="AA18">
+        <v>21</v>
+      </c>
+      <c r="AB18">
+        <v>0.02148468815135477</v>
+      </c>
+      <c r="AC18">
+        <v>0.9044412377745711</v>
+      </c>
+      <c r="AD18">
+        <v>0.06942440275773613</v>
+      </c>
+      <c r="AE18">
+        <v>0.02613435946769284</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG18">
+        <v>0.9</v>
+      </c>
+      <c r="AH18">
+        <v>2.796651563257659</v>
+      </c>
+      <c r="AI18">
+        <v>0.129842979251424</v>
+      </c>
+      <c r="AJ18">
+        <v>4.026490066225166</v>
+      </c>
+      <c r="AK18">
+        <v>3.384105960264901</v>
+      </c>
+      <c r="AL18">
+        <v>0.6423841059602649</v>
+      </c>
+      <c r="AM18">
+        <v>1.582781456953642</v>
+      </c>
+      <c r="AN18">
+        <v>0.3377483443708609</v>
+      </c>
+      <c r="AO18">
+        <v>20.42857142857143</v>
+      </c>
+      <c r="AP18">
         <v>7.5</v>
       </c>
-      <c r="AB18">
-        <v>13</v>
-      </c>
-      <c r="AC18">
-        <v>0.02410845859121724</v>
-      </c>
-      <c r="AD18">
-        <v>0.8379605069260242</v>
-      </c>
-      <c r="AE18">
-        <v>0.1092248747421161</v>
-      </c>
-      <c r="AF18">
-        <v>0.05281461833185969</v>
-      </c>
-      <c r="AG18">
-        <v>0.84</v>
-      </c>
-      <c r="AH18">
-        <v>2.667311214378226</v>
-      </c>
-      <c r="AI18">
-        <v>0.2218239794846467</v>
-      </c>
-      <c r="AJ18">
-        <v>3.244705882352941</v>
-      </c>
-      <c r="AK18">
-        <v>2.670588235294117</v>
-      </c>
-      <c r="AL18">
-        <v>0.5741176470588235</v>
-      </c>
-      <c r="AM18">
-        <v>1.2</v>
-      </c>
-      <c r="AN18">
-        <v>0.2611764705882353</v>
-      </c>
-      <c r="AO18">
-        <v>18.04237288135593</v>
-      </c>
-      <c r="AP18">
-        <v>7.148305084745763</v>
-      </c>
       <c r="AQ18">
-        <v>8.017021276595745</v>
+        <v>8.602040816326531</v>
       </c>
       <c r="AR18">
-        <v>2.6</v>
+        <v>2.663265306122449</v>
       </c>
       <c r="AS18">
-        <v>10.02535160476019</v>
+        <v>11.8265306122449</v>
       </c>
       <c r="AT18">
-        <v>4.548305084745763</v>
+        <v>4.836734693877551</v>
       </c>
       <c r="AU18">
-        <v>11.30603448275862</v>
+        <v>10.3298969072165</v>
       </c>
       <c r="AV18">
-        <v>12.87068965517241</v>
+        <v>11.89690721649485</v>
       </c>
       <c r="AW18">
-        <v>1.203389830508474</v>
+        <v>1.26530612244898</v>
       </c>
       <c r="AX18">
-        <v>2.033898305084746</v>
+        <v>2.061224489795918</v>
       </c>
       <c r="AY18">
-        <v>0.05084745762711865</v>
+        <v>0.05102040816326531</v>
       </c>
       <c r="AZ18">
-        <v>0.1228813559322034</v>
+        <v>0.05102040816326531</v>
       </c>
     </row>
     <row r="19" spans="1:52">
-      <c r="A19" s="1">
-        <v>130</v>
+      <c r="A19" t="s">
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="2">
-        <v>43771</v>
+        <v>54</v>
+      </c>
+      <c r="C19" s="2">
+        <v>43687</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
       </c>
       <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19">
         <v>2</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
-        <v>74</v>
-      </c>
       <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" t="s">
-        <v>74</v>
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19">
+        <v>15</v>
       </c>
       <c r="N19">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R19">
         <v>11</v>
       </c>
       <c r="S19">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>1.16</v>
       </c>
       <c r="Z19">
-        <v>1.33</v>
+        <v>7.5</v>
       </c>
       <c r="AA19">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AB19">
-        <v>9</v>
+        <v>0.02410845859121724</v>
       </c>
       <c r="AC19">
-        <v>0.02099693678641046</v>
+        <v>0.8379605069260242</v>
       </c>
       <c r="AD19">
-        <v>0.7308827624617098</v>
+        <v>0.1092248747421161</v>
       </c>
       <c r="AE19">
-        <v>0.1790030632135896</v>
-      </c>
-      <c r="AF19">
-        <v>0.09011417432470065</v>
+        <v>0.05281461833185969</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>55</v>
       </c>
       <c r="AG19">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="AH19">
-        <v>2.374963519955169</v>
+        <v>2.667311214378226</v>
       </c>
       <c r="AI19">
-        <v>0.4413036626395789</v>
+        <v>0.2218239794846467</v>
       </c>
       <c r="AJ19">
-        <v>2.996992481203008</v>
+        <v>3.244705882352941</v>
       </c>
       <c r="AK19">
-        <v>2.243609022556391</v>
+        <v>2.670588235294117</v>
       </c>
       <c r="AL19">
-        <v>0.7533834586466165</v>
+        <v>0.5741176470588235</v>
       </c>
       <c r="AM19">
-        <v>1.018796992481203</v>
+        <v>1.2</v>
       </c>
       <c r="AN19">
-        <v>0.3511278195488722</v>
+        <v>0.2611764705882353</v>
       </c>
       <c r="AO19">
-        <v>16.67069486404834</v>
+        <v>18.04237288135593</v>
       </c>
       <c r="AP19">
-        <v>8.202416918429003</v>
+        <v>7.148305084745763</v>
       </c>
       <c r="AQ19">
-        <v>7.274390243902439</v>
+        <v>8.017021276595745</v>
       </c>
       <c r="AR19">
-        <v>3.282012195121951</v>
+        <v>2.6</v>
       </c>
       <c r="AS19">
-        <v>9.396304620145902</v>
+        <v>10.02535160476019</v>
       </c>
       <c r="AT19">
-        <v>4.920404723307053</v>
+        <v>4.548305084745763</v>
       </c>
       <c r="AU19">
-        <v>11.79352850539291</v>
+        <v>11.30603448275862</v>
       </c>
       <c r="AV19">
-        <v>13.3482280431433</v>
+        <v>12.87068965517241</v>
       </c>
       <c r="AW19">
-        <v>1.270553064275037</v>
+        <v>1.203389830508474</v>
       </c>
       <c r="AX19">
-        <v>2.082212257100149</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AY19">
-        <v>0.05680119581464873</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="AZ19">
-        <v>0.1225710014947683</v>
+        <v>0.1228813559322034</v>
       </c>
     </row>
     <row r="20" spans="1:52">
-      <c r="A20" s="1">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="2">
+        <v>43701</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>76</v>
+      </c>
+      <c r="M20">
         <v>6</v>
       </c>
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="2">
-        <v>43778</v>
-      </c>
-      <c r="E20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
+      <c r="N20">
+        <v>11</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>5</v>
+      </c>
+      <c r="Q20">
+        <v>15</v>
+      </c>
+      <c r="R20">
+        <v>12</v>
+      </c>
+      <c r="S20">
         <v>2</v>
       </c>
-      <c r="I20" t="s">
-        <v>72</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20" t="s">
-        <v>74</v>
-      </c>
-      <c r="N20">
-        <v>12</v>
-      </c>
-      <c r="O20">
-        <v>11</v>
-      </c>
-      <c r="P20">
-        <v>3</v>
-      </c>
-      <c r="Q20">
-        <v>6</v>
-      </c>
-      <c r="R20">
-        <v>13</v>
-      </c>
-      <c r="S20">
-        <v>10</v>
-      </c>
       <c r="T20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V20">
         <v>0</v>
       </c>
-      <c r="W20">
-        <v>0</v>
+      <c r="Y20">
+        <v>1.9</v>
       </c>
       <c r="Z20">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="AA20">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AB20">
-        <v>1.44</v>
+        <v>0.02165165979436064</v>
       </c>
       <c r="AC20">
-        <v>0.02350427350427349</v>
+        <v>0.5046641296793235</v>
       </c>
       <c r="AD20">
-        <v>0.1303418803418804</v>
+        <v>0.2860406478979471</v>
       </c>
       <c r="AE20">
-        <v>0.1987179487179487</v>
-      </c>
-      <c r="AF20">
-        <v>0.6709401709401709</v>
+        <v>0.2092952224227294</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>55</v>
       </c>
       <c r="AG20">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="AH20">
-        <v>0.6141496649014346</v>
+        <v>1.800193731331305</v>
       </c>
       <c r="AI20">
-        <v>2.159329896897765</v>
+        <v>0.9268512077832276</v>
       </c>
       <c r="AJ20">
-        <v>2.816872427983539</v>
+        <v>2.520207988655165</v>
       </c>
       <c r="AK20">
-        <v>0.845679012345679</v>
+        <v>1.534270857953203</v>
       </c>
       <c r="AL20">
-        <v>1.97119341563786</v>
+        <v>0.9859371307019618</v>
       </c>
       <c r="AM20">
-        <v>0.3919753086419753</v>
+        <v>0.6751359016780902</v>
       </c>
       <c r="AN20">
-        <v>0.8744855967078189</v>
+        <v>0.4286727337194185</v>
       </c>
       <c r="AO20">
-        <v>9.316814159292035</v>
+        <v>12.98669114272602</v>
       </c>
       <c r="AP20">
-        <v>14.09026548672566</v>
+        <v>9.416704910509408</v>
       </c>
       <c r="AQ20">
-        <v>3.729537366548043</v>
+        <v>5.664571694599627</v>
       </c>
       <c r="AR20">
-        <v>6.366548042704626</v>
+        <v>4.024208566108007</v>
       </c>
       <c r="AS20">
-        <v>5.587276792743991</v>
+        <v>7.322119448126393</v>
       </c>
       <c r="AT20">
-        <v>7.723717444021033</v>
+        <v>5.3924963444014</v>
       </c>
       <c r="AU20">
-        <v>13.76036036036036</v>
+        <v>12.50816231343284</v>
       </c>
       <c r="AV20">
-        <v>12.53693693693694</v>
+        <v>13.36963619402985</v>
       </c>
       <c r="AW20">
-        <v>2</v>
+        <v>1.443801468951703</v>
       </c>
       <c r="AX20">
-        <v>1.753086419753086</v>
+        <v>1.941019363454262</v>
       </c>
       <c r="AY20">
-        <v>0.08465608465608465</v>
+        <v>0.0841308702425996</v>
       </c>
       <c r="AZ20">
-        <v>0.08465608465608465</v>
+        <v>0.1275317160026708</v>
       </c>
     </row>
     <row r="21" spans="1:52">
-      <c r="A21" s="1">
-        <v>46</v>
+      <c r="A21" t="s">
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="2">
-        <v>43799</v>
+        <v>54</v>
+      </c>
+      <c r="C21" s="2">
+        <v>43709</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
       </c>
       <c r="E21" t="s">
         <v>55</v>
       </c>
-      <c r="F21" t="s">
-        <v>69</v>
+      <c r="F21">
+        <v>0</v>
       </c>
       <c r="G21">
         <v>4</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
-        <v>74</v>
+      <c r="H21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>3</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21" t="s">
-        <v>74</v>
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>76</v>
+      </c>
+      <c r="M21">
+        <v>11</v>
       </c>
       <c r="N21">
         <v>12</v>
       </c>
       <c r="O21">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P21">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R21">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="S21">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>1</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>6</v>
       </c>
       <c r="Z21">
-        <v>1.16</v>
+        <v>3.75</v>
       </c>
       <c r="AA21">
-        <v>7.5</v>
+        <v>1.6</v>
       </c>
       <c r="AB21">
-        <v>13</v>
+        <v>0.01944444444444445</v>
       </c>
       <c r="AC21">
-        <v>0.02410845859121724</v>
+        <v>0.1472222222222222</v>
       </c>
       <c r="AD21">
-        <v>0.8379605069260242</v>
+        <v>0.2472222222222222</v>
       </c>
       <c r="AE21">
-        <v>0.1092248747421161</v>
-      </c>
-      <c r="AF21">
-        <v>0.05281461833185969</v>
+        <v>0.6055555555555555</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>55</v>
       </c>
       <c r="AG21">
-        <v>0.84</v>
+        <v>0.14</v>
       </c>
       <c r="AH21">
-        <v>2.667311214378226</v>
+        <v>0.6912121080431523</v>
       </c>
       <c r="AI21">
-        <v>0.2218239794846467</v>
+        <v>2.071242936932667</v>
       </c>
       <c r="AJ21">
-        <v>3.244705882352941</v>
+        <v>2.847413793103448</v>
       </c>
       <c r="AK21">
-        <v>2.670588235294117</v>
+        <v>0.9025862068965518</v>
       </c>
       <c r="AL21">
-        <v>0.5741176470588235</v>
+        <v>1.944827586206896</v>
       </c>
       <c r="AM21">
-        <v>1.2</v>
+        <v>0.4158757549611734</v>
       </c>
       <c r="AN21">
-        <v>0.2611764705882353</v>
+        <v>0.8654012079378774</v>
       </c>
       <c r="AO21">
-        <v>18.04237288135593</v>
+        <v>9.732503888024883</v>
       </c>
       <c r="AP21">
-        <v>7.148305084745763</v>
+        <v>13.84447900466563</v>
       </c>
       <c r="AQ21">
-        <v>8.017021276595745</v>
+        <v>3.59375</v>
       </c>
       <c r="AR21">
-        <v>2.6</v>
+        <v>6.0671875</v>
       </c>
       <c r="AS21">
-        <v>10.02535160476019</v>
+        <v>6.138753888024883</v>
       </c>
       <c r="AT21">
-        <v>4.548305084745763</v>
+        <v>7.777291504665629</v>
       </c>
       <c r="AU21">
-        <v>11.30603448275862</v>
+        <v>13.47310126582278</v>
       </c>
       <c r="AV21">
-        <v>12.87068965517241</v>
+        <v>12.28955696202532</v>
       </c>
       <c r="AW21">
-        <v>1.203389830508474</v>
+        <v>1.973886328725038</v>
       </c>
       <c r="AX21">
-        <v>2.033898305084746</v>
+        <v>1.69431643625192</v>
       </c>
       <c r="AY21">
-        <v>0.05084745762711865</v>
+        <v>0.130568356374808</v>
       </c>
       <c r="AZ21">
-        <v>0.1228813559322034</v>
+        <v>0.0890937019969278</v>
       </c>
     </row>
     <row r="22" spans="1:52">
-      <c r="A22" s="1">
-        <v>10</v>
+      <c r="A22" t="s">
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="2">
-        <v>43805</v>
+        <v>54</v>
+      </c>
+      <c r="C22" s="2">
+        <v>43722</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" t="s">
-        <v>55</v>
+        <v>66</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>75</v>
+      </c>
+      <c r="M22">
+        <v>13</v>
+      </c>
+      <c r="N22">
+        <v>8</v>
+      </c>
+      <c r="O22">
         <v>4</v>
       </c>
-      <c r="I22" t="s">
-        <v>72</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22" t="s">
-        <v>73</v>
-      </c>
-      <c r="N22">
-        <v>9</v>
-      </c>
-      <c r="O22">
-        <v>11</v>
-      </c>
       <c r="P22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="R22">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="S22">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T22">
         <v>4</v>
       </c>
       <c r="U22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V22">
         <v>0</v>
       </c>
-      <c r="W22">
-        <v>0</v>
+      <c r="Y22">
+        <v>1.12</v>
       </c>
       <c r="Z22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA22">
-        <v>3.6</v>
+        <v>21</v>
       </c>
       <c r="AB22">
-        <v>1.55</v>
+        <v>0.02182539682539682</v>
       </c>
       <c r="AC22">
-        <v>0.02193207031916707</v>
+        <v>0.8710317460317459</v>
       </c>
       <c r="AD22">
-        <v>0.1209250725379758</v>
+        <v>0.1031746031746032</v>
       </c>
       <c r="AE22">
-        <v>0.2558457074586107</v>
-      </c>
-      <c r="AF22">
-        <v>0.6232292200034135</v>
+        <v>0.0257936507936508</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>55</v>
       </c>
       <c r="AG22">
-        <v>0.12</v>
+        <v>0.86</v>
       </c>
       <c r="AH22">
-        <v>0.6141496649014346</v>
+        <v>2.704784065422714</v>
       </c>
       <c r="AI22">
-        <v>2.159329896897765</v>
+        <v>0.1949087718544399</v>
       </c>
       <c r="AJ22">
-        <v>2.816872427983539</v>
+        <v>3.569364161849711</v>
       </c>
       <c r="AK22">
-        <v>0.845679012345679</v>
+        <v>3.040462427745665</v>
       </c>
       <c r="AL22">
-        <v>1.97119341563786</v>
+        <v>0.5289017341040463</v>
       </c>
       <c r="AM22">
-        <v>0.3919753086419753</v>
+        <v>1.260115606936416</v>
       </c>
       <c r="AN22">
-        <v>0.8744855967078189</v>
+        <v>0.2398843930635838</v>
       </c>
       <c r="AO22">
-        <v>9.316814159292035</v>
+        <v>19.30102040816326</v>
       </c>
       <c r="AP22">
-        <v>14.09026548672566</v>
+        <v>6.969387755102041</v>
       </c>
       <c r="AQ22">
-        <v>3.729537366548043</v>
+        <v>8.479591836734693</v>
       </c>
       <c r="AR22">
-        <v>6.366548042704626</v>
+        <v>2.602040816326531</v>
       </c>
       <c r="AS22">
-        <v>5.587276792743991</v>
+        <v>10.82142857142857</v>
       </c>
       <c r="AT22">
-        <v>7.723717444021033</v>
+        <v>4.36734693877551</v>
       </c>
       <c r="AU22">
-        <v>13.76036036036036</v>
+        <v>10.71354166666667</v>
       </c>
       <c r="AV22">
-        <v>12.53693693693694</v>
+        <v>12</v>
       </c>
       <c r="AW22">
-        <v>2</v>
+        <v>1.168367346938775</v>
       </c>
       <c r="AX22">
-        <v>1.753086419753086</v>
+        <v>1.918367346938775</v>
       </c>
       <c r="AY22">
-        <v>0.08465608465608465</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="AZ22">
-        <v>0.08465608465608465</v>
+        <v>0.08673469387755102</v>
       </c>
     </row>
     <row r="23" spans="1:52">
-      <c r="A23" s="1">
-        <v>69</v>
+      <c r="A23" t="s">
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="2">
-        <v>43813</v>
+        <v>54</v>
+      </c>
+      <c r="C23" s="2">
+        <v>43729</v>
+      </c>
+      <c r="D23" t="s">
+        <v>61</v>
       </c>
       <c r="E23" t="s">
         <v>55</v>
       </c>
-      <c r="F23" t="s">
-        <v>70</v>
+      <c r="F23">
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>4</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23" t="s">
-        <v>74</v>
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23" t="s">
-        <v>74</v>
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>77</v>
+      </c>
+      <c r="M23">
+        <v>6</v>
       </c>
       <c r="N23">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O23">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q23">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="R23">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="S23">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V23">
         <v>0</v>
       </c>
-      <c r="W23">
-        <v>0</v>
+      <c r="Y23">
+        <v>9</v>
       </c>
       <c r="Z23">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="AA23">
-        <v>7</v>
+        <v>1.33</v>
       </c>
       <c r="AB23">
-        <v>12</v>
+        <v>0.02099693678641046</v>
       </c>
       <c r="AC23">
-        <v>0.01984126984126984</v>
+        <v>0.09011417432470065</v>
       </c>
       <c r="AD23">
-        <v>0.8134920634920635</v>
+        <v>0.1790030632135896</v>
       </c>
       <c r="AE23">
-        <v>0.123015873015873</v>
-      </c>
-      <c r="AF23">
-        <v>0.06349206349206349</v>
+        <v>0.7308827624617098</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>55</v>
       </c>
       <c r="AG23">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="AH23">
-        <v>2.569400010218955</v>
+        <v>0.4559059179476074</v>
       </c>
       <c r="AI23">
-        <v>0.2930782281356768</v>
+        <v>2.35693778909972</v>
       </c>
       <c r="AJ23">
-        <v>3.293733681462141</v>
+        <v>2.995348837209303</v>
       </c>
       <c r="AK23">
-        <v>2.663185378590078</v>
+        <v>0.7286821705426356</v>
       </c>
       <c r="AL23">
-        <v>0.6305483028720626</v>
+        <v>2.266666666666667</v>
       </c>
       <c r="AM23">
-        <v>1.221932114882507</v>
+        <v>0.3198757763975155</v>
       </c>
       <c r="AN23">
-        <v>0.283289817232376</v>
+        <v>0.9891304347826086</v>
       </c>
       <c r="AO23">
-        <v>17.78403755868545</v>
+        <v>8.866323907455012</v>
       </c>
       <c r="AP23">
-        <v>7.288732394366197</v>
+        <v>14.65552699228792</v>
       </c>
       <c r="AQ23">
-        <v>8.19811320754717</v>
+        <v>3.467866323907455</v>
       </c>
       <c r="AR23">
-        <v>2.884433962264151</v>
+        <v>6.586118251928021</v>
       </c>
       <c r="AS23">
-        <v>9.585924351138281</v>
+        <v>5.398457583547557</v>
       </c>
       <c r="AT23">
-        <v>4.404298432102046</v>
+        <v>8.069408740359899</v>
       </c>
       <c r="AU23">
-        <v>10.84964200477327</v>
+        <v>13.49081364829396</v>
       </c>
       <c r="AV23">
-        <v>12.6563245823389</v>
+        <v>11.61942257217848</v>
       </c>
       <c r="AW23">
-        <v>1.182669789227166</v>
+        <v>2.124681933842239</v>
       </c>
       <c r="AX23">
-        <v>1.892271662763466</v>
+        <v>1.702290076335878</v>
       </c>
       <c r="AY23">
-        <v>0.03747072599531616</v>
+        <v>0.09923664122137404</v>
       </c>
       <c r="AZ23">
-        <v>0.1334894613583138</v>
+        <v>0.07888040712468193</v>
       </c>
     </row>
     <row r="24" spans="1:52">
-      <c r="A24" s="1">
-        <v>131</v>
+      <c r="A24" t="s">
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="2">
-        <v>43834</v>
+        <v>54</v>
+      </c>
+      <c r="C24" s="2">
+        <v>43736</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" t="s">
-        <v>55</v>
+        <v>67</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" t="s">
-        <v>72</v>
+      <c r="H24" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24" t="s">
-        <v>72</v>
+      <c r="K24" t="s">
+        <v>77</v>
+      </c>
+      <c r="M24">
+        <v>13</v>
       </c>
       <c r="N24">
+        <v>9</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <v>2</v>
+      </c>
+      <c r="Q24">
         <v>11</v>
       </c>
-      <c r="O24">
+      <c r="R24">
+        <v>8</v>
+      </c>
+      <c r="S24">
         <v>4</v>
-      </c>
-      <c r="P24">
-        <v>5</v>
-      </c>
-      <c r="Q24">
-        <v>3</v>
-      </c>
-      <c r="R24">
-        <v>12</v>
-      </c>
-      <c r="S24">
-        <v>15</v>
       </c>
       <c r="T24">
         <v>4</v>
       </c>
       <c r="U24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V24">
-        <v>1</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>1.12</v>
       </c>
       <c r="Z24">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="AA24">
-        <v>4.2</v>
+        <v>21</v>
       </c>
       <c r="AB24">
-        <v>1.66</v>
+        <v>0.02182539682539682</v>
       </c>
       <c r="AC24">
-        <v>0.02090903295722575</v>
+        <v>0.8710317460317459</v>
       </c>
       <c r="AD24">
-        <v>0.2013131892649964</v>
+        <v>0.1031746031746032</v>
       </c>
       <c r="AE24">
-        <v>0.2171862051380123</v>
-      </c>
-      <c r="AF24">
-        <v>0.5815006055969911</v>
+        <v>0.0257936507936508</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>55</v>
       </c>
       <c r="AG24">
-        <v>0.2</v>
+        <v>0.86</v>
       </c>
       <c r="AH24">
-        <v>0.890402680627888</v>
+        <v>2.704784065422714</v>
       </c>
       <c r="AI24">
-        <v>1.848240697110522</v>
+        <v>0.1949087718544399</v>
       </c>
       <c r="AJ24">
-        <v>2.706509539842873</v>
+        <v>3.569364161849711</v>
       </c>
       <c r="AK24">
-        <v>1.01010101010101</v>
+        <v>3.040462427745665</v>
       </c>
       <c r="AL24">
-        <v>1.696408529741863</v>
+        <v>0.5289017341040463</v>
       </c>
       <c r="AM24">
-        <v>0.4404494382022472</v>
+        <v>1.260115606936416</v>
       </c>
       <c r="AN24">
-        <v>0.7460674157303371</v>
+        <v>0.2398843930635838</v>
       </c>
       <c r="AO24">
-        <v>10.26507276507276</v>
+        <v>19.30102040816326</v>
       </c>
       <c r="AP24">
-        <v>13.02390852390852</v>
+        <v>6.969387755102041</v>
       </c>
       <c r="AQ24">
-        <v>4.048319327731092</v>
+        <v>8.479591836734693</v>
       </c>
       <c r="AR24">
-        <v>5.60609243697479</v>
+        <v>2.602040816326531</v>
       </c>
       <c r="AS24">
-        <v>6.216753437341668</v>
+        <v>10.82142857142857</v>
       </c>
       <c r="AT24">
-        <v>7.417816086933731</v>
+        <v>4.36734693877551</v>
       </c>
       <c r="AU24">
-        <v>13.22362869198312</v>
+        <v>10.71354166666667</v>
       </c>
       <c r="AV24">
-        <v>12.78586497890295</v>
+        <v>12</v>
       </c>
       <c r="AW24">
-        <v>1.844221105527638</v>
+        <v>1.168367346938775</v>
       </c>
       <c r="AX24">
-        <v>1.798994974874372</v>
+        <v>1.918367346938775</v>
       </c>
       <c r="AY24">
-        <v>0.1206030150753769</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="AZ24">
-        <v>0.1165829145728643</v>
+        <v>0.08673469387755102</v>
       </c>
     </row>
     <row r="25" spans="1:52">
-      <c r="A25" s="1">
-        <v>86</v>
+      <c r="A25" t="s">
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="2">
-        <v>43840</v>
+        <v>54</v>
+      </c>
+      <c r="C25" s="2">
+        <v>43765</v>
+      </c>
+      <c r="D25" t="s">
+        <v>63</v>
       </c>
       <c r="E25" t="s">
         <v>55</v>
       </c>
-      <c r="F25" t="s">
-        <v>71</v>
+      <c r="F25">
+        <v>0</v>
       </c>
       <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>76</v>
+      </c>
+      <c r="M25">
+        <v>9</v>
+      </c>
+      <c r="N25">
+        <v>12</v>
+      </c>
+      <c r="O25">
+        <v>4</v>
+      </c>
+      <c r="P25">
+        <v>3</v>
+      </c>
+      <c r="Q25">
+        <v>17</v>
+      </c>
+      <c r="R25">
+        <v>14</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
         <v>2</v>
       </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
-        <v>74</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25" t="s">
-        <v>72</v>
-      </c>
-      <c r="N25">
-        <v>28</v>
-      </c>
-      <c r="O25">
-        <v>6</v>
-      </c>
-      <c r="P25">
-        <v>11</v>
-      </c>
-      <c r="Q25">
-        <v>3</v>
-      </c>
-      <c r="R25">
-        <v>12</v>
-      </c>
-      <c r="S25">
-        <v>11</v>
-      </c>
-      <c r="T25">
-        <v>4</v>
-      </c>
       <c r="U25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V25">
         <v>0</v>
       </c>
-      <c r="W25">
-        <v>0</v>
+      <c r="Y25">
+        <v>10</v>
       </c>
       <c r="Z25">
-        <v>1.08</v>
+        <v>5.25</v>
       </c>
       <c r="AA25">
-        <v>11</v>
+        <v>1.28</v>
       </c>
       <c r="AB25">
-        <v>21</v>
+        <v>0.02390873015873011</v>
       </c>
       <c r="AC25">
-        <v>0.02148468815135477</v>
+        <v>0.07609126984126989</v>
       </c>
       <c r="AD25">
-        <v>0.9044412377745711</v>
+        <v>0.1665674603174604</v>
       </c>
       <c r="AE25">
-        <v>0.06942440275773613</v>
-      </c>
-      <c r="AF25">
-        <v>0.02613435946769284</v>
+        <v>0.7573412698412699</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>55</v>
       </c>
       <c r="AG25">
-        <v>0.9</v>
+        <v>0.08</v>
       </c>
       <c r="AH25">
-        <v>2.796651563257659</v>
+        <v>0.4559059179476074</v>
       </c>
       <c r="AI25">
-        <v>0.129842979251424</v>
+        <v>2.35693778909972</v>
       </c>
       <c r="AJ25">
-        <v>4.026490066225166</v>
+        <v>2.995348837209303</v>
       </c>
       <c r="AK25">
-        <v>3.384105960264901</v>
+        <v>0.7286821705426356</v>
       </c>
       <c r="AL25">
-        <v>0.6423841059602649</v>
+        <v>2.266666666666667</v>
       </c>
       <c r="AM25">
-        <v>1.582781456953642</v>
+        <v>0.3198757763975155</v>
       </c>
       <c r="AN25">
-        <v>0.3377483443708609</v>
+        <v>0.9891304347826086</v>
       </c>
       <c r="AO25">
-        <v>20.42857142857143</v>
+        <v>8.866323907455012</v>
       </c>
       <c r="AP25">
-        <v>7.5</v>
+        <v>14.65552699228792</v>
       </c>
       <c r="AQ25">
-        <v>8.602040816326531</v>
+        <v>3.467866323907455</v>
       </c>
       <c r="AR25">
-        <v>2.663265306122449</v>
+        <v>6.586118251928021</v>
       </c>
       <c r="AS25">
-        <v>11.8265306122449</v>
+        <v>5.398457583547557</v>
       </c>
       <c r="AT25">
-        <v>4.836734693877551</v>
+        <v>8.069408740359899</v>
       </c>
       <c r="AU25">
-        <v>10.3298969072165</v>
+        <v>13.49081364829396</v>
       </c>
       <c r="AV25">
-        <v>11.89690721649485</v>
+        <v>11.61942257217848</v>
       </c>
       <c r="AW25">
-        <v>1.26530612244898</v>
+        <v>2.124681933842239</v>
       </c>
       <c r="AX25">
-        <v>2.061224489795918</v>
+        <v>1.702290076335878</v>
       </c>
       <c r="AY25">
-        <v>0.05102040816326531</v>
+        <v>0.09923664122137404</v>
       </c>
       <c r="AZ25">
-        <v>0.05102040816326531</v>
+        <v>0.07888040712468193</v>
       </c>
     </row>
     <row r="26" spans="1:52">
-      <c r="A26" s="1">
-        <v>132</v>
+      <c r="A26" t="s">
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="2">
-        <v>43847</v>
+        <v>54</v>
+      </c>
+      <c r="C26" s="2">
+        <v>43768</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" t="s">
-        <v>55</v>
+        <v>68</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>75</v>
+      </c>
+      <c r="M26">
+        <v>17</v>
+      </c>
+      <c r="N26">
+        <v>8</v>
+      </c>
+      <c r="O26">
+        <v>6</v>
+      </c>
+      <c r="P26">
         <v>2</v>
       </c>
-      <c r="I26" t="s">
-        <v>72</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26" t="s">
-        <v>73</v>
-      </c>
-      <c r="N26">
-        <v>10</v>
-      </c>
-      <c r="O26">
+      <c r="Q26">
+        <v>14</v>
+      </c>
+      <c r="R26">
         <v>9</v>
       </c>
-      <c r="P26">
-        <v>6</v>
-      </c>
-      <c r="Q26">
-        <v>4</v>
-      </c>
-      <c r="R26">
-        <v>17</v>
-      </c>
       <c r="S26">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="T26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
-      <c r="W26">
-        <v>0</v>
+      <c r="Y26">
+        <v>1.16</v>
       </c>
       <c r="Z26">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="AA26">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="AB26">
-        <v>2</v>
+        <v>0.02410845859121724</v>
       </c>
       <c r="AC26">
-        <v>0.02026143790849673</v>
+        <v>0.8379605069260242</v>
       </c>
       <c r="AD26">
-        <v>0.2464052287581699</v>
+        <v>0.1092248747421161</v>
       </c>
       <c r="AE26">
-        <v>0.2738562091503268</v>
-      </c>
-      <c r="AF26">
-        <v>0.4797385620915033</v>
+        <v>0.05281461833185969</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>55</v>
       </c>
       <c r="AG26">
-        <v>0.24</v>
+        <v>0.84</v>
       </c>
       <c r="AH26">
-        <v>1.022168469006281</v>
+        <v>2.667311214378226</v>
       </c>
       <c r="AI26">
-        <v>1.703611942788239</v>
+        <v>0.2218239794846467</v>
       </c>
       <c r="AJ26">
-        <v>2.601443768996961</v>
+        <v>3.244705882352941</v>
       </c>
       <c r="AK26">
-        <v>1.067249240121581</v>
+        <v>2.670588235294117</v>
       </c>
       <c r="AL26">
-        <v>1.53419452887538</v>
+        <v>0.5741176470588235</v>
       </c>
       <c r="AM26">
-        <v>0.455893536121673</v>
+        <v>1.2</v>
       </c>
       <c r="AN26">
-        <v>0.6513307984790875</v>
+        <v>0.2611764705882353</v>
       </c>
       <c r="AO26">
-        <v>10.75886524822695</v>
+        <v>18.04237288135593</v>
       </c>
       <c r="AP26">
-        <v>12.46679561573179</v>
+        <v>7.148305084745763</v>
       </c>
       <c r="AQ26">
-        <v>4.115734720416125</v>
+        <v>8.017021276595745</v>
       </c>
       <c r="AR26">
-        <v>5.107282184655396</v>
+        <v>2.6</v>
       </c>
       <c r="AS26">
-        <v>6.643130527810825</v>
+        <v>10.02535160476019</v>
       </c>
       <c r="AT26">
-        <v>7.359513431076394</v>
+        <v>4.548305084745763</v>
       </c>
       <c r="AU26">
-        <v>13.11140235910878</v>
+        <v>11.30603448275862</v>
       </c>
       <c r="AV26">
-        <v>12.93184796854522</v>
+        <v>12.87068965517241</v>
       </c>
       <c r="AW26">
-        <v>1.834167709637046</v>
+        <v>1.203389830508474</v>
       </c>
       <c r="AX26">
-        <v>1.790362953692115</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AY26">
-        <v>0.1095118898623279</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="AZ26">
-        <v>0.09324155193992491</v>
+        <v>0.1228813559322034</v>
       </c>
     </row>
     <row r="27" spans="1:52">
-      <c r="A27" s="1">
-        <v>106</v>
+      <c r="A27" t="s">
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="2">
-        <v>43856</v>
+        <v>54</v>
+      </c>
+      <c r="C27" s="2">
+        <v>43771</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" t="s">
-        <v>55</v>
+        <v>69</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-      <c r="I27" t="s">
-        <v>72</v>
+      <c r="H27" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27" t="s">
-        <v>72</v>
+      <c r="K27" t="s">
+        <v>75</v>
+      </c>
+      <c r="M27">
+        <v>20</v>
       </c>
       <c r="N27">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O27">
+        <v>4</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>11</v>
       </c>
-      <c r="P27">
-        <v>2</v>
-      </c>
-      <c r="Q27">
-        <v>6</v>
-      </c>
       <c r="R27">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="S27">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="T27">
         <v>3</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V27">
         <v>0</v>
       </c>
-      <c r="W27">
-        <v>0</v>
+      <c r="Y27">
+        <v>1.33</v>
       </c>
       <c r="Z27">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA27">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="AB27">
-        <v>1.33</v>
+        <v>0.02099693678641046</v>
       </c>
       <c r="AC27">
-        <v>0.02080200501253134</v>
+        <v>0.7308827624617098</v>
       </c>
       <c r="AD27">
-        <v>0.07919799498746867</v>
+        <v>0.1790030632135896</v>
       </c>
       <c r="AE27">
-        <v>0.1897243107769423</v>
-      </c>
-      <c r="AF27">
-        <v>0.7310776942355889</v>
+        <v>0.09011417432470065</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>55</v>
       </c>
       <c r="AG27">
-        <v>0.08</v>
+        <v>0.72</v>
       </c>
       <c r="AH27">
-        <v>0.4559059179476074</v>
+        <v>2.374963519955169</v>
       </c>
       <c r="AI27">
-        <v>2.35693778909972</v>
+        <v>0.4413036626395789</v>
       </c>
       <c r="AJ27">
-        <v>2.995348837209303</v>
+        <v>2.996992481203008</v>
       </c>
       <c r="AK27">
-        <v>0.7286821705426356</v>
+        <v>2.243609022556391</v>
       </c>
       <c r="AL27">
-        <v>2.266666666666667</v>
+        <v>0.7533834586466165</v>
       </c>
       <c r="AM27">
-        <v>0.3198757763975155</v>
+        <v>1.018796992481203</v>
       </c>
       <c r="AN27">
-        <v>0.9891304347826086</v>
+        <v>0.3511278195488722</v>
       </c>
       <c r="AO27">
-        <v>8.866323907455012</v>
+        <v>16.67069486404834</v>
       </c>
       <c r="AP27">
-        <v>14.65552699228792</v>
+        <v>8.202416918429003</v>
       </c>
       <c r="AQ27">
-        <v>3.467866323907455</v>
+        <v>7.274390243902439</v>
       </c>
       <c r="AR27">
-        <v>6.586118251928021</v>
+        <v>3.282012195121951</v>
       </c>
       <c r="AS27">
-        <v>5.398457583547557</v>
+        <v>9.396304620145902</v>
       </c>
       <c r="AT27">
-        <v>8.069408740359899</v>
+        <v>4.920404723307053</v>
       </c>
       <c r="AU27">
-        <v>13.49081364829396</v>
+        <v>11.79352850539291</v>
       </c>
       <c r="AV27">
-        <v>11.61942257217848</v>
+        <v>13.3482280431433</v>
       </c>
       <c r="AW27">
-        <v>2.124681933842239</v>
+        <v>1.270553064275037</v>
       </c>
       <c r="AX27">
-        <v>1.702290076335878</v>
+        <v>2.082212257100149</v>
       </c>
       <c r="AY27">
-        <v>0.09923664122137404</v>
+        <v>0.05680119581464873</v>
       </c>
       <c r="AZ27">
-        <v>0.07888040712468193</v>
+        <v>0.1225710014947683</v>
       </c>
     </row>
     <row r="28" spans="1:52">
-      <c r="A28" s="1">
-        <v>133</v>
+      <c r="A28" t="s">
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="2">
-        <v>43861</v>
+        <v>54</v>
+      </c>
+      <c r="C28" s="2">
+        <v>43778</v>
+      </c>
+      <c r="D28" t="s">
+        <v>56</v>
       </c>
       <c r="E28" t="s">
         <v>55</v>
       </c>
-      <c r="F28" t="s">
-        <v>68</v>
+      <c r="F28">
+        <v>1</v>
       </c>
       <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>75</v>
+      </c>
+      <c r="M28">
+        <v>12</v>
+      </c>
+      <c r="N28">
+        <v>11</v>
+      </c>
+      <c r="O28">
         <v>3</v>
-      </c>
-      <c r="H28">
-        <v>2</v>
-      </c>
-      <c r="I28" t="s">
-        <v>74</v>
-      </c>
-      <c r="J28">
-        <v>2</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28" t="s">
-        <v>74</v>
-      </c>
-      <c r="N28">
-        <v>12</v>
-      </c>
-      <c r="O28">
-        <v>15</v>
       </c>
       <c r="P28">
         <v>6</v>
       </c>
       <c r="Q28">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="R28">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S28">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="T28">
+        <v>3</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>6.5</v>
+      </c>
+      <c r="Z28">
+        <v>4.5</v>
+      </c>
+      <c r="AA28">
+        <v>1.44</v>
+      </c>
+      <c r="AB28">
+        <v>0.02350427350427349</v>
+      </c>
+      <c r="AC28">
+        <v>0.1303418803418804</v>
+      </c>
+      <c r="AD28">
+        <v>0.1987179487179487</v>
+      </c>
+      <c r="AE28">
+        <v>0.6709401709401709</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG28">
+        <v>0.12</v>
+      </c>
+      <c r="AH28">
+        <v>0.6141496649014346</v>
+      </c>
+      <c r="AI28">
+        <v>2.159329896897765</v>
+      </c>
+      <c r="AJ28">
+        <v>2.816872427983539</v>
+      </c>
+      <c r="AK28">
+        <v>0.845679012345679</v>
+      </c>
+      <c r="AL28">
+        <v>1.97119341563786</v>
+      </c>
+      <c r="AM28">
+        <v>0.3919753086419753</v>
+      </c>
+      <c r="AN28">
+        <v>0.8744855967078189</v>
+      </c>
+      <c r="AO28">
+        <v>9.316814159292035</v>
+      </c>
+      <c r="AP28">
+        <v>14.09026548672566</v>
+      </c>
+      <c r="AQ28">
+        <v>3.729537366548043</v>
+      </c>
+      <c r="AR28">
+        <v>6.366548042704626</v>
+      </c>
+      <c r="AS28">
+        <v>5.587276792743991</v>
+      </c>
+      <c r="AT28">
+        <v>7.723717444021033</v>
+      </c>
+      <c r="AU28">
+        <v>13.76036036036036</v>
+      </c>
+      <c r="AV28">
+        <v>12.53693693693694</v>
+      </c>
+      <c r="AW28">
         <v>2</v>
       </c>
-      <c r="U28">
-        <v>4</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>1.1</v>
-      </c>
-      <c r="AA28">
-        <v>9</v>
-      </c>
-      <c r="AB28">
-        <v>23</v>
-      </c>
-      <c r="AC28">
-        <v>0.0212267603571951</v>
-      </c>
-      <c r="AD28">
-        <v>0.887864148733714</v>
-      </c>
-      <c r="AE28">
-        <v>0.089884350753916</v>
-      </c>
-      <c r="AF28">
-        <v>0.02225150051237012</v>
-      </c>
-      <c r="AG28">
-        <v>0.88</v>
-      </c>
-      <c r="AH28">
-        <v>2.750754945712069</v>
-      </c>
-      <c r="AI28">
-        <v>0.1624716087621099</v>
-      </c>
-      <c r="AJ28">
-        <v>3.685082872928177</v>
-      </c>
-      <c r="AK28">
-        <v>3.149171270718232</v>
-      </c>
-      <c r="AL28">
-        <v>0.5359116022099447</v>
-      </c>
-      <c r="AM28">
-        <v>1.419889502762431</v>
-      </c>
-      <c r="AN28">
-        <v>0.2265193370165746</v>
-      </c>
-      <c r="AO28">
-        <v>19.94915254237288</v>
-      </c>
-      <c r="AP28">
-        <v>7.135593220338983</v>
-      </c>
-      <c r="AQ28">
-        <v>8.457627118644067</v>
-      </c>
-      <c r="AR28">
-        <v>2.38135593220339</v>
-      </c>
-      <c r="AS28">
-        <v>11.49152542372881</v>
-      </c>
-      <c r="AT28">
-        <v>4.754237288135593</v>
-      </c>
-      <c r="AU28">
-        <v>9.860869565217392</v>
-      </c>
-      <c r="AV28">
-        <v>11.76521739130435</v>
-      </c>
-      <c r="AW28">
-        <v>0.9491525423728814</v>
-      </c>
       <c r="AX28">
-        <v>1.906779661016949</v>
+        <v>1.753086419753086</v>
       </c>
       <c r="AY28">
-        <v>0.02542372881355932</v>
+        <v>0.08465608465608465</v>
       </c>
       <c r="AZ28">
-        <v>0.1101694915254237</v>
+        <v>0.08465608465608465</v>
       </c>
     </row>
     <row r="29" spans="1:52">
-      <c r="A29" s="1">
-        <v>134</v>
+      <c r="A29" t="s">
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="2">
-        <v>43869</v>
+        <v>54</v>
+      </c>
+      <c r="C29" s="2">
+        <v>43799</v>
+      </c>
+      <c r="D29" t="s">
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" t="s">
-        <v>55</v>
+        <v>73</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
       </c>
       <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I29">
         <v>3</v>
       </c>
-      <c r="H29">
-        <v>2</v>
-      </c>
-      <c r="I29" t="s">
-        <v>74</v>
-      </c>
       <c r="J29">
-        <v>3</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29" t="s">
-        <v>74</v>
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>75</v>
+      </c>
+      <c r="M29">
+        <v>12</v>
       </c>
       <c r="N29">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="O29">
         <v>9</v>
       </c>
       <c r="P29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q29">
+        <v>12</v>
+      </c>
+      <c r="R29">
+        <v>13</v>
+      </c>
+      <c r="S29">
         <v>3</v>
       </c>
-      <c r="R29">
-        <v>12</v>
-      </c>
-      <c r="S29">
-        <v>19</v>
-      </c>
       <c r="T29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U29">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V29">
         <v>0</v>
       </c>
-      <c r="W29">
-        <v>0</v>
+      <c r="Y29">
+        <v>1.16</v>
       </c>
       <c r="Z29">
-        <v>2.45</v>
+        <v>7.5</v>
       </c>
       <c r="AA29">
-        <v>3.25</v>
+        <v>13</v>
       </c>
       <c r="AB29">
-        <v>2.87</v>
+        <v>0.02410845859121724</v>
       </c>
       <c r="AC29">
-        <v>0.0214292095825197</v>
+        <v>0.8379605069260242</v>
       </c>
       <c r="AD29">
-        <v>0.3867340557236027</v>
+        <v>0.1092248747421161</v>
       </c>
       <c r="AE29">
-        <v>0.286263098109788</v>
-      </c>
-      <c r="AF29">
-        <v>0.3270028461666092</v>
+        <v>0.05281461833185969</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>55</v>
       </c>
       <c r="AG29">
-        <v>0.38</v>
+        <v>0.84</v>
       </c>
       <c r="AH29">
-        <v>1.464160929441638</v>
+        <v>2.667311214378226</v>
       </c>
       <c r="AI29">
-        <v>1.247711980891946</v>
+        <v>0.2218239794846467</v>
       </c>
       <c r="AJ29">
-        <v>2.490089514066496</v>
+        <v>3.244705882352941</v>
       </c>
       <c r="AK29">
-        <v>1.330562659846547</v>
+        <v>2.670588235294117</v>
       </c>
       <c r="AL29">
-        <v>1.159526854219949</v>
+        <v>0.5741176470588235</v>
       </c>
       <c r="AM29">
-        <v>0.5905360758819141</v>
+        <v>1.2</v>
       </c>
       <c r="AN29">
-        <v>0.5006927421933284</v>
+        <v>0.2611764705882353</v>
       </c>
       <c r="AO29">
-        <v>11.79715236686391</v>
+        <v>18.04237288135593</v>
       </c>
       <c r="AP29">
-        <v>10.31712278106509</v>
+        <v>7.148305084745763</v>
       </c>
       <c r="AQ29">
-        <v>5.063702596674762</v>
+        <v>8.017021276595745</v>
       </c>
       <c r="AR29">
-        <v>4.467401457126845</v>
+        <v>2.6</v>
       </c>
       <c r="AS29">
-        <v>6.733449770189148</v>
+        <v>10.02535160476019</v>
       </c>
       <c r="AT29">
-        <v>5.849721323938244</v>
+        <v>4.548305084745763</v>
       </c>
       <c r="AU29">
-        <v>12.89644194756554</v>
+        <v>11.30603448275862</v>
       </c>
       <c r="AV29">
-        <v>13.3434456928839</v>
+        <v>12.87068965517241</v>
       </c>
       <c r="AW29">
-        <v>1.614438212411797</v>
+        <v>1.203389830508474</v>
       </c>
       <c r="AX29">
-        <v>1.903202460647729</v>
+        <v>2.033898305084746</v>
       </c>
       <c r="AY29">
-        <v>0.09372172969060974</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="AZ29">
-        <v>0.1166998371630179</v>
+        <v>0.1228813559322034</v>
       </c>
     </row>
     <row r="30" spans="1:52">
-      <c r="A30" s="1">
-        <v>135</v>
+      <c r="A30" t="s">
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="2">
-        <v>43876</v>
+        <v>54</v>
+      </c>
+      <c r="C30" s="2">
+        <v>43805</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
       </c>
       <c r="E30" t="s">
         <v>55</v>
       </c>
-      <c r="F30" t="s">
-        <v>57</v>
+      <c r="F30">
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30" t="s">
-        <v>72</v>
+        <v>4</v>
+      </c>
+      <c r="H30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30" t="s">
-        <v>72</v>
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M30">
+        <v>9</v>
       </c>
       <c r="N30">
+        <v>11</v>
+      </c>
+      <c r="O30">
+        <v>5</v>
+      </c>
+      <c r="P30">
+        <v>6</v>
+      </c>
+      <c r="Q30">
+        <v>17</v>
+      </c>
+      <c r="R30">
         <v>10</v>
       </c>
-      <c r="O30">
-        <v>12</v>
-      </c>
-      <c r="P30">
-        <v>3</v>
-      </c>
-      <c r="Q30">
+      <c r="S30">
+        <v>4</v>
+      </c>
+      <c r="T30">
+        <v>4</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
         <v>7</v>
       </c>
-      <c r="R30">
-        <v>21</v>
-      </c>
-      <c r="S30">
-        <v>16</v>
-      </c>
-      <c r="T30">
+      <c r="Z30">
+        <v>3.6</v>
+      </c>
+      <c r="AA30">
+        <v>1.55</v>
+      </c>
+      <c r="AB30">
+        <v>0.02193207031916707</v>
+      </c>
+      <c r="AC30">
+        <v>0.1209250725379758</v>
+      </c>
+      <c r="AD30">
+        <v>0.2558457074586107</v>
+      </c>
+      <c r="AE30">
+        <v>0.6232292200034135</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG30">
+        <v>0.12</v>
+      </c>
+      <c r="AH30">
+        <v>0.6141496649014346</v>
+      </c>
+      <c r="AI30">
+        <v>2.159329896897765</v>
+      </c>
+      <c r="AJ30">
+        <v>2.816872427983539</v>
+      </c>
+      <c r="AK30">
+        <v>0.845679012345679</v>
+      </c>
+      <c r="AL30">
+        <v>1.97119341563786</v>
+      </c>
+      <c r="AM30">
+        <v>0.3919753086419753</v>
+      </c>
+      <c r="AN30">
+        <v>0.8744855967078189</v>
+      </c>
+      <c r="AO30">
+        <v>9.316814159292035</v>
+      </c>
+      <c r="AP30">
+        <v>14.09026548672566</v>
+      </c>
+      <c r="AQ30">
+        <v>3.729537366548043</v>
+      </c>
+      <c r="AR30">
+        <v>6.366548042704626</v>
+      </c>
+      <c r="AS30">
+        <v>5.587276792743991</v>
+      </c>
+      <c r="AT30">
+        <v>7.723717444021033</v>
+      </c>
+      <c r="AU30">
+        <v>13.76036036036036</v>
+      </c>
+      <c r="AV30">
+        <v>12.53693693693694</v>
+      </c>
+      <c r="AW30">
         <v>2</v>
       </c>
-      <c r="U30">
-        <v>5</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <v>1.61</v>
-      </c>
-      <c r="AA30">
-        <v>3.8</v>
-      </c>
-      <c r="AB30">
-        <v>5.5</v>
-      </c>
-      <c r="AC30">
-        <v>0.02203136299246141</v>
-      </c>
-      <c r="AD30">
-        <v>0.5990866494298988</v>
-      </c>
-      <c r="AE30">
-        <v>0.2411265317443807</v>
-      </c>
-      <c r="AF30">
-        <v>0.1597868188257204</v>
-      </c>
-      <c r="AG30">
-        <v>0.6</v>
-      </c>
-      <c r="AH30">
-        <v>2.074979228938552</v>
-      </c>
-      <c r="AI30">
-        <v>0.6822066408970383</v>
-      </c>
-      <c r="AJ30">
-        <v>2.731009070294785</v>
-      </c>
-      <c r="AK30">
-        <v>1.841836734693878</v>
-      </c>
-      <c r="AL30">
-        <v>0.889172335600907</v>
-      </c>
-      <c r="AM30">
-        <v>0.804822695035461</v>
-      </c>
-      <c r="AN30">
-        <v>0.3809929078014184</v>
-      </c>
-      <c r="AO30">
-        <v>14.25174825174825</v>
-      </c>
-      <c r="AP30">
-        <v>8.831668331668332</v>
-      </c>
-      <c r="AQ30">
-        <v>6.290126582278481</v>
-      </c>
-      <c r="AR30">
-        <v>3.61620253164557</v>
-      </c>
-      <c r="AS30">
-        <v>7.961621669469769</v>
-      </c>
-      <c r="AT30">
-        <v>5.215465800022763</v>
-      </c>
-      <c r="AU30">
-        <v>12.44489588623667</v>
-      </c>
-      <c r="AV30">
-        <v>13.62061960385983</v>
-      </c>
-      <c r="AW30">
-        <v>1.406084017382907</v>
-      </c>
       <c r="AX30">
-        <v>2.070980202800579</v>
+        <v>1.753086419753086</v>
       </c>
       <c r="AY30">
-        <v>0.06132303235152101</v>
+        <v>0.08465608465608465</v>
       </c>
       <c r="AZ30">
-        <v>0.1313375181071946</v>
+        <v>0.08465608465608465</v>
       </c>
     </row>
     <row r="31" spans="1:52">
-      <c r="A31" s="1">
-        <v>14</v>
+      <c r="A31" t="s">
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="2">
-        <v>43885</v>
+        <v>54</v>
+      </c>
+      <c r="C31" s="2">
+        <v>43813</v>
+      </c>
+      <c r="D31" t="s">
+        <v>55</v>
       </c>
       <c r="E31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" t="s">
-        <v>55</v>
+        <v>74</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31" t="s">
-        <v>72</v>
+      <c r="H31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31" t="s">
-        <v>72</v>
+      <c r="K31" t="s">
+        <v>75</v>
+      </c>
+      <c r="M31">
+        <v>17</v>
       </c>
       <c r="N31">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O31">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P31">
+        <v>4</v>
+      </c>
+      <c r="Q31">
         <v>7</v>
       </c>
-      <c r="Q31">
-        <v>4</v>
-      </c>
       <c r="R31">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="S31">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31">
         <v>0</v>
       </c>
-      <c r="W31">
-        <v>0</v>
+      <c r="Y31">
+        <v>1.2</v>
       </c>
       <c r="Z31">
         <v>7</v>
       </c>
       <c r="AA31">
-        <v>4.33</v>
+        <v>12</v>
       </c>
       <c r="AB31">
-        <v>1.44</v>
+        <v>0.01984126984126984</v>
       </c>
       <c r="AC31">
-        <v>0.02274948983955912</v>
+        <v>0.8134920634920635</v>
       </c>
       <c r="AD31">
-        <v>0.1201076530175837</v>
+        <v>0.123015873015873</v>
       </c>
       <c r="AE31">
-        <v>0.2081973923775309</v>
-      </c>
-      <c r="AF31">
-        <v>0.6716949546048853</v>
+        <v>0.06349206349206349</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>55</v>
       </c>
       <c r="AG31">
-        <v>0.12</v>
+        <v>0.8</v>
       </c>
       <c r="AH31">
-        <v>0.6141496649014346</v>
+        <v>2.569400010218955</v>
       </c>
       <c r="AI31">
-        <v>2.159329896897765</v>
+        <v>0.2930782281356768</v>
       </c>
       <c r="AJ31">
-        <v>2.816872427983539</v>
+        <v>3.293733681462141</v>
       </c>
       <c r="AK31">
-        <v>0.845679012345679</v>
+        <v>2.663185378590078</v>
       </c>
       <c r="AL31">
-        <v>1.97119341563786</v>
+        <v>0.6305483028720626</v>
       </c>
       <c r="AM31">
-        <v>0.3919753086419753</v>
+        <v>1.221932114882507</v>
       </c>
       <c r="AN31">
-        <v>0.8744855967078189</v>
+        <v>0.283289817232376</v>
       </c>
       <c r="AO31">
-        <v>9.316814159292035</v>
+        <v>17.78403755868545</v>
       </c>
       <c r="AP31">
-        <v>14.09026548672566</v>
+        <v>7.288732394366197</v>
       </c>
       <c r="AQ31">
-        <v>3.729537366548043</v>
+        <v>8.19811320754717</v>
       </c>
       <c r="AR31">
-        <v>6.366548042704626</v>
+        <v>2.884433962264151</v>
       </c>
       <c r="AS31">
-        <v>5.587276792743991</v>
+        <v>9.585924351138281</v>
       </c>
       <c r="AT31">
-        <v>7.723717444021033</v>
+        <v>4.404298432102046</v>
       </c>
       <c r="AU31">
-        <v>13.76036036036036</v>
+        <v>10.84964200477327</v>
       </c>
       <c r="AV31">
-        <v>12.53693693693694</v>
+        <v>12.6563245823389</v>
       </c>
       <c r="AW31">
-        <v>2</v>
+        <v>1.182669789227166</v>
       </c>
       <c r="AX31">
-        <v>1.753086419753086</v>
+        <v>1.892271662763466</v>
       </c>
       <c r="AY31">
-        <v>0.08465608465608465</v>
+        <v>0.03747072599531616</v>
       </c>
       <c r="AZ31">
-        <v>0.08465608465608465</v>
+        <v>0.1334894613583138</v>
       </c>
     </row>
     <row r="32" spans="1:52">
-      <c r="A32" s="1">
+      <c r="A32" t="s">
         <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="2">
-        <v>43892</v>
+        <v>54</v>
+      </c>
+      <c r="C32" s="2">
+        <v>43834</v>
+      </c>
+      <c r="D32" t="s">
+        <v>57</v>
       </c>
       <c r="E32" t="s">
         <v>55</v>
       </c>
-      <c r="F32" t="s">
-        <v>56</v>
+      <c r="F32">
+        <v>0</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32" t="s">
-        <v>73</v>
+      <c r="H32" t="s">
+        <v>76</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32" t="s">
-        <v>73</v>
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>76</v>
+      </c>
+      <c r="M32">
+        <v>11</v>
       </c>
       <c r="N32">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="O32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P32">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="R32">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S32">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="T32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V32">
         <v>0</v>
       </c>
-      <c r="W32">
-        <v>0</v>
+      <c r="Y32">
+        <v>4.5</v>
       </c>
       <c r="Z32">
-        <v>1.14</v>
+        <v>4.2</v>
       </c>
       <c r="AA32">
-        <v>8.5</v>
+        <v>1.66</v>
       </c>
       <c r="AB32">
-        <v>13</v>
+        <v>0.02090903295722575</v>
       </c>
       <c r="AC32">
-        <v>0.02392103940091557</v>
+        <v>0.2013131892649964</v>
       </c>
       <c r="AD32">
-        <v>0.8532719430552248</v>
+        <v>0.2171862051380123</v>
       </c>
       <c r="AE32">
-        <v>0.09372601942261384</v>
-      </c>
-      <c r="AF32">
-        <v>0.05300203752216136</v>
+        <v>0.5815006055969911</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>55</v>
       </c>
       <c r="AG32">
-        <v>0.84</v>
+        <v>0.2</v>
       </c>
       <c r="AH32">
-        <v>2.667311214378226</v>
+        <v>0.890402680627888</v>
       </c>
       <c r="AI32">
-        <v>0.2218239794846467</v>
+        <v>1.848240697110522</v>
       </c>
       <c r="AJ32">
-        <v>3.244705882352941</v>
+        <v>2.706509539842873</v>
       </c>
       <c r="AK32">
-        <v>2.670588235294117</v>
+        <v>1.01010101010101</v>
       </c>
       <c r="AL32">
-        <v>0.5741176470588235</v>
+        <v>1.696408529741863</v>
       </c>
       <c r="AM32">
-        <v>1.2</v>
+        <v>0.4404494382022472</v>
       </c>
       <c r="AN32">
-        <v>0.2611764705882353</v>
+        <v>0.7460674157303371</v>
       </c>
       <c r="AO32">
-        <v>18.04237288135593</v>
+        <v>10.26507276507276</v>
       </c>
       <c r="AP32">
-        <v>7.148305084745763</v>
+        <v>13.02390852390852</v>
       </c>
       <c r="AQ32">
-        <v>8.017021276595745</v>
+        <v>4.048319327731092</v>
       </c>
       <c r="AR32">
-        <v>2.6</v>
+        <v>5.60609243697479</v>
       </c>
       <c r="AS32">
-        <v>10.02535160476019</v>
+        <v>6.216753437341668</v>
       </c>
       <c r="AT32">
-        <v>4.548305084745763</v>
+        <v>7.417816086933731</v>
       </c>
       <c r="AU32">
-        <v>11.30603448275862</v>
+        <v>13.22362869198312</v>
       </c>
       <c r="AV32">
-        <v>12.87068965517241</v>
+        <v>12.78586497890295</v>
       </c>
       <c r="AW32">
-        <v>1.203389830508474</v>
+        <v>1.844221105527638</v>
       </c>
       <c r="AX32">
-        <v>2.033898305084746</v>
+        <v>1.798994974874372</v>
       </c>
       <c r="AY32">
-        <v>0.05084745762711865</v>
+        <v>0.1206030150753769</v>
       </c>
       <c r="AZ32">
-        <v>0.1228813559322034</v>
+        <v>0.1165829145728643</v>
       </c>
     </row>
     <row r="33" spans="1:52">
-      <c r="A33" s="1">
-        <v>114</v>
+      <c r="A33" t="s">
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="2">
-        <v>43897</v>
+        <v>54</v>
+      </c>
+      <c r="C33" s="2">
+        <v>43840</v>
+      </c>
+      <c r="D33" t="s">
+        <v>55</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33" t="s">
-        <v>73</v>
+      <c r="H33" t="s">
+        <v>75</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33" t="s">
-        <v>73</v>
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>76</v>
+      </c>
+      <c r="M33">
+        <v>28</v>
       </c>
       <c r="N33">
+        <v>6</v>
+      </c>
+      <c r="O33">
+        <v>11</v>
+      </c>
+      <c r="P33">
         <v>3</v>
       </c>
-      <c r="O33">
-        <v>15</v>
-      </c>
-      <c r="P33">
+      <c r="Q33">
+        <v>12</v>
+      </c>
+      <c r="R33">
+        <v>11</v>
+      </c>
+      <c r="S33">
+        <v>4</v>
+      </c>
+      <c r="T33">
         <v>2</v>
       </c>
-      <c r="Q33">
-        <v>6</v>
-      </c>
-      <c r="R33">
-        <v>13</v>
-      </c>
-      <c r="S33">
-        <v>12</v>
-      </c>
-      <c r="T33">
-        <v>4</v>
-      </c>
       <c r="U33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V33">
         <v>0</v>
       </c>
-      <c r="W33">
-        <v>0</v>
+      <c r="Y33">
+        <v>1.08</v>
       </c>
       <c r="Z33">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AA33">
-        <v>4.75</v>
+        <v>21</v>
       </c>
       <c r="AB33">
-        <v>1.33</v>
+        <v>0.02148468815135477</v>
       </c>
       <c r="AC33">
-        <v>0.02668435795370779</v>
+        <v>0.9044412377745711</v>
       </c>
       <c r="AD33">
-        <v>0.09096270086982162</v>
+        <v>0.06942440275773613</v>
       </c>
       <c r="AE33">
-        <v>0.1838419578357659</v>
-      </c>
-      <c r="AF33">
-        <v>0.7251953412944124</v>
+        <v>0.02613435946769284</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>55</v>
       </c>
       <c r="AG33">
-        <v>0.08</v>
+        <v>0.9</v>
       </c>
       <c r="AH33">
-        <v>0.4559059179476074</v>
+        <v>2.796651563257659</v>
       </c>
       <c r="AI33">
-        <v>2.35693778909972</v>
+        <v>0.129842979251424</v>
       </c>
       <c r="AJ33">
-        <v>2.995348837209303</v>
+        <v>4.026490066225166</v>
       </c>
       <c r="AK33">
-        <v>0.7286821705426356</v>
+        <v>3.384105960264901</v>
       </c>
       <c r="AL33">
-        <v>2.266666666666667</v>
+        <v>0.6423841059602649</v>
       </c>
       <c r="AM33">
-        <v>0.3198757763975155</v>
+        <v>1.582781456953642</v>
       </c>
       <c r="AN33">
-        <v>0.9891304347826086</v>
+        <v>0.3377483443708609</v>
       </c>
       <c r="AO33">
-        <v>8.866323907455012</v>
+        <v>20.42857142857143</v>
       </c>
       <c r="AP33">
-        <v>14.65552699228792</v>
+        <v>7.5</v>
       </c>
       <c r="AQ33">
-        <v>3.467866323907455</v>
+        <v>8.602040816326531</v>
       </c>
       <c r="AR33">
-        <v>6.586118251928021</v>
+        <v>2.663265306122449</v>
       </c>
       <c r="AS33">
-        <v>5.398457583547557</v>
+        <v>11.8265306122449</v>
       </c>
       <c r="AT33">
-        <v>8.069408740359899</v>
+        <v>4.836734693877551</v>
       </c>
       <c r="AU33">
-        <v>13.49081364829396</v>
+        <v>10.3298969072165</v>
       </c>
       <c r="AV33">
-        <v>11.61942257217848</v>
+        <v>11.89690721649485</v>
       </c>
       <c r="AW33">
-        <v>2.124681933842239</v>
+        <v>1.26530612244898</v>
       </c>
       <c r="AX33">
-        <v>1.702290076335878</v>
+        <v>2.061224489795918</v>
       </c>
       <c r="AY33">
-        <v>0.09923664122137404</v>
+        <v>0.05102040816326531</v>
       </c>
       <c r="AZ33">
-        <v>0.07888040712468193</v>
+        <v>0.05102040816326531</v>
       </c>
     </row>
     <row r="34" spans="1:52">
-      <c r="A34" s="1">
-        <v>60</v>
+      <c r="A34" t="s">
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="2">
-        <v>43986</v>
+        <v>54</v>
+      </c>
+      <c r="C34" s="2">
+        <v>43847</v>
+      </c>
+      <c r="D34" t="s">
+        <v>58</v>
       </c>
       <c r="E34" t="s">
         <v>55</v>
       </c>
-      <c r="F34" t="s">
-        <v>58</v>
+      <c r="F34">
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34" t="s">
-        <v>73</v>
+        <v>2</v>
+      </c>
+      <c r="H34" t="s">
+        <v>76</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34" t="s">
-        <v>73</v>
+      <c r="K34" t="s">
+        <v>77</v>
+      </c>
+      <c r="M34">
+        <v>10</v>
       </c>
       <c r="N34">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="O34">
+        <v>6</v>
+      </c>
+      <c r="P34">
         <v>4</v>
       </c>
-      <c r="P34">
-        <v>5</v>
-      </c>
       <c r="Q34">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="R34">
         <v>11</v>
       </c>
       <c r="S34">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="T34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -5593,178 +5605,178 @@
       <c r="V34">
         <v>0</v>
       </c>
-      <c r="W34">
-        <v>0</v>
+      <c r="Y34">
+        <v>3.75</v>
       </c>
       <c r="Z34">
-        <v>1.16</v>
+        <v>3.4</v>
       </c>
       <c r="AA34">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AB34">
-        <v>15</v>
+        <v>0.02026143790849673</v>
       </c>
       <c r="AC34">
-        <v>0.023864258347017</v>
+        <v>0.2464052287581699</v>
       </c>
       <c r="AD34">
-        <v>0.8382047071702244</v>
+        <v>0.2738562091503268</v>
       </c>
       <c r="AE34">
-        <v>0.1189928845101259</v>
-      </c>
-      <c r="AF34">
-        <v>0.04280240831964967</v>
+        <v>0.4797385620915033</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>55</v>
       </c>
       <c r="AG34">
-        <v>0.84</v>
+        <v>0.24</v>
       </c>
       <c r="AH34">
-        <v>2.667311214378226</v>
+        <v>1.022168469006281</v>
       </c>
       <c r="AI34">
-        <v>0.2218239794846467</v>
+        <v>1.703611942788239</v>
       </c>
       <c r="AJ34">
-        <v>3.244705882352941</v>
+        <v>2.601443768996961</v>
       </c>
       <c r="AK34">
-        <v>2.670588235294117</v>
+        <v>1.067249240121581</v>
       </c>
       <c r="AL34">
-        <v>0.5741176470588235</v>
+        <v>1.53419452887538</v>
       </c>
       <c r="AM34">
-        <v>1.2</v>
+        <v>0.455893536121673</v>
       </c>
       <c r="AN34">
-        <v>0.2611764705882353</v>
+        <v>0.6513307984790875</v>
       </c>
       <c r="AO34">
-        <v>18.04237288135593</v>
+        <v>10.75886524822695</v>
       </c>
       <c r="AP34">
-        <v>7.148305084745763</v>
+        <v>12.46679561573179</v>
       </c>
       <c r="AQ34">
-        <v>8.017021276595745</v>
+        <v>4.115734720416125</v>
       </c>
       <c r="AR34">
-        <v>2.6</v>
+        <v>5.107282184655396</v>
       </c>
       <c r="AS34">
-        <v>10.02535160476019</v>
+        <v>6.643130527810825</v>
       </c>
       <c r="AT34">
-        <v>4.548305084745763</v>
+        <v>7.359513431076394</v>
       </c>
       <c r="AU34">
-        <v>11.30603448275862</v>
+        <v>13.11140235910878</v>
       </c>
       <c r="AV34">
-        <v>12.87068965517241</v>
+        <v>12.93184796854522</v>
       </c>
       <c r="AW34">
-        <v>1.203389830508474</v>
+        <v>1.834167709637046</v>
       </c>
       <c r="AX34">
-        <v>2.033898305084746</v>
+        <v>1.790362953692115</v>
       </c>
       <c r="AY34">
-        <v>0.05084745762711865</v>
+        <v>0.1095118898623279</v>
       </c>
       <c r="AZ34">
-        <v>0.1228813559322034</v>
+        <v>0.09324155193992491</v>
       </c>
     </row>
     <row r="35" spans="1:52">
-      <c r="A35" s="1">
-        <v>122</v>
+      <c r="A35" t="s">
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="2">
-        <v>43992</v>
+        <v>54</v>
+      </c>
+      <c r="C35" s="2">
+        <v>43856</v>
+      </c>
+      <c r="D35" t="s">
+        <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" t="s">
-        <v>55</v>
+        <v>55</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
       </c>
       <c r="G35">
         <v>2</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="s">
+        <v>76</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>76</v>
+      </c>
+      <c r="M35">
+        <v>6</v>
+      </c>
+      <c r="N35">
+        <v>11</v>
+      </c>
+      <c r="O35">
         <v>2</v>
       </c>
-      <c r="I35" t="s">
-        <v>73</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
+      <c r="P35">
+        <v>6</v>
+      </c>
+      <c r="Q35">
+        <v>17</v>
+      </c>
+      <c r="R35">
+        <v>16</v>
+      </c>
+      <c r="S35">
+        <v>3</v>
+      </c>
+      <c r="T35">
         <v>2</v>
       </c>
-      <c r="L35" t="s">
-        <v>72</v>
-      </c>
-      <c r="N35">
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
         <v>10</v>
       </c>
-      <c r="O35">
-        <v>11</v>
-      </c>
-      <c r="P35">
-        <v>4</v>
-      </c>
-      <c r="Q35">
-        <v>4</v>
-      </c>
-      <c r="R35">
-        <v>18</v>
-      </c>
-      <c r="S35">
-        <v>17</v>
-      </c>
-      <c r="T35">
-        <v>5</v>
-      </c>
-      <c r="U35">
-        <v>3</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
       <c r="Z35">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="AA35">
-        <v>4.5</v>
+        <v>1.33</v>
       </c>
       <c r="AB35">
-        <v>1.36</v>
+        <v>0.02080200501253134</v>
       </c>
       <c r="AC35">
-        <v>0.02287581699346404</v>
+        <v>0.07919799498746867</v>
       </c>
       <c r="AD35">
-        <v>0.08823529411764706</v>
+        <v>0.1897243107769423</v>
       </c>
       <c r="AE35">
-        <v>0.1993464052287582</v>
-      </c>
-      <c r="AF35">
-        <v>0.7124183006535947</v>
+        <v>0.7310776942355889</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>55</v>
       </c>
       <c r="AG35">
         <v>0.08</v>
@@ -5828,300 +5840,1492 @@
       </c>
     </row>
     <row r="36" spans="1:52">
-      <c r="A36" s="1">
-        <v>73</v>
+      <c r="A36" t="s">
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="2">
-        <v>43999</v>
+        <v>54</v>
+      </c>
+      <c r="C36" s="2">
+        <v>43861</v>
+      </c>
+      <c r="D36" t="s">
+        <v>55</v>
       </c>
       <c r="E36" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" t="s">
-        <v>55</v>
+        <v>72</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
       </c>
       <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
         <v>2</v>
       </c>
-      <c r="I36" t="s">
-        <v>72</v>
+      <c r="H36" t="s">
+        <v>75</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
       </c>
       <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36" t="s">
-        <v>74</v>
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>75</v>
+      </c>
+      <c r="M36">
+        <v>12</v>
       </c>
       <c r="N36">
+        <v>15</v>
+      </c>
+      <c r="O36">
+        <v>6</v>
+      </c>
+      <c r="P36">
         <v>5</v>
       </c>
-      <c r="O36">
-        <v>16</v>
-      </c>
-      <c r="P36">
-        <v>1</v>
-      </c>
       <c r="Q36">
+        <v>8</v>
+      </c>
+      <c r="R36">
+        <v>11</v>
+      </c>
+      <c r="S36">
+        <v>2</v>
+      </c>
+      <c r="T36">
         <v>4</v>
       </c>
-      <c r="R36">
-        <v>16</v>
-      </c>
-      <c r="S36">
-        <v>21</v>
-      </c>
-      <c r="T36">
-        <v>3</v>
-      </c>
       <c r="U36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V36">
-        <v>3</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>1.1</v>
       </c>
       <c r="Z36">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="AA36">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="AB36">
-        <v>1.57</v>
+        <v>0.0212267603571951</v>
       </c>
       <c r="AC36">
-        <v>0.02292028565913913</v>
+        <v>0.887864148733714</v>
       </c>
       <c r="AD36">
-        <v>0.1588978961590427</v>
+        <v>0.089884350753916</v>
       </c>
       <c r="AE36">
-        <v>0.2270797143408609</v>
-      </c>
-      <c r="AF36">
-        <v>0.6140223895000965</v>
+        <v>0.02225150051237012</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>55</v>
       </c>
       <c r="AG36">
-        <v>0.16</v>
+        <v>0.88</v>
       </c>
       <c r="AH36">
-        <v>0.7631171347433517</v>
+        <v>2.750754945712069</v>
       </c>
       <c r="AI36">
-        <v>1.989323606801409</v>
+        <v>0.1624716087621099</v>
       </c>
       <c r="AJ36">
-        <v>2.700507614213198</v>
+        <v>3.685082872928177</v>
       </c>
       <c r="AK36">
-        <v>0.9450084602368867</v>
+        <v>3.149171270718232</v>
       </c>
       <c r="AL36">
-        <v>1.755499153976311</v>
+        <v>0.5359116022099447</v>
       </c>
       <c r="AM36">
-        <v>0.3908629441624366</v>
+        <v>1.419889502762431</v>
       </c>
       <c r="AN36">
-        <v>0.7343485617597293</v>
+        <v>0.2265193370165746</v>
       </c>
       <c r="AO36">
-        <v>9.772939346811819</v>
+        <v>19.94915254237288</v>
       </c>
       <c r="AP36">
-        <v>13.65163297045101</v>
+        <v>7.135593220338983</v>
       </c>
       <c r="AQ36">
-        <v>3.689873417721519</v>
+        <v>8.457627118644067</v>
       </c>
       <c r="AR36">
-        <v>5.862341772151899</v>
+        <v>2.38135593220339</v>
       </c>
       <c r="AS36">
-        <v>6.0830659290903</v>
+        <v>11.49152542372881</v>
       </c>
       <c r="AT36">
-        <v>7.789291198299111</v>
+        <v>4.754237288135593</v>
       </c>
       <c r="AU36">
-        <v>13.45945945945946</v>
+        <v>9.860869565217392</v>
       </c>
       <c r="AV36">
-        <v>12.69475357710652</v>
+        <v>11.76521739130435</v>
       </c>
       <c r="AW36">
-        <v>2.026073619631902</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="AX36">
-        <v>1.828220858895706</v>
+        <v>1.906779661016949</v>
       </c>
       <c r="AY36">
-        <v>0.1088957055214724</v>
+        <v>0.02542372881355932</v>
       </c>
       <c r="AZ36">
-        <v>0.1073619631901841</v>
+        <v>0.1101694915254237</v>
       </c>
     </row>
     <row r="37" spans="1:52">
-      <c r="A37" s="1">
-        <v>136</v>
+      <c r="A37" t="s">
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="2">
+        <v>43869</v>
+      </c>
+      <c r="D37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37" t="s">
+        <v>75</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>75</v>
+      </c>
+      <c r="M37">
+        <v>17</v>
+      </c>
+      <c r="N37">
+        <v>9</v>
+      </c>
+      <c r="O37">
+        <v>4</v>
+      </c>
+      <c r="P37">
+        <v>3</v>
+      </c>
+      <c r="Q37">
+        <v>12</v>
+      </c>
+      <c r="R37">
+        <v>19</v>
+      </c>
+      <c r="S37">
+        <v>4</v>
+      </c>
+      <c r="T37">
+        <v>6</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>2.45</v>
+      </c>
+      <c r="Z37">
+        <v>3.25</v>
+      </c>
+      <c r="AA37">
+        <v>2.87</v>
+      </c>
+      <c r="AB37">
+        <v>0.0214292095825197</v>
+      </c>
+      <c r="AC37">
+        <v>0.3867340557236027</v>
+      </c>
+      <c r="AD37">
+        <v>0.286263098109788</v>
+      </c>
+      <c r="AE37">
+        <v>0.3270028461666092</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG37">
+        <v>0.38</v>
+      </c>
+      <c r="AH37">
+        <v>1.464160929441638</v>
+      </c>
+      <c r="AI37">
+        <v>1.247711980891946</v>
+      </c>
+      <c r="AJ37">
+        <v>2.490089514066496</v>
+      </c>
+      <c r="AK37">
+        <v>1.330562659846547</v>
+      </c>
+      <c r="AL37">
+        <v>1.159526854219949</v>
+      </c>
+      <c r="AM37">
+        <v>0.5905360758819141</v>
+      </c>
+      <c r="AN37">
+        <v>0.5006927421933284</v>
+      </c>
+      <c r="AO37">
+        <v>11.79715236686391</v>
+      </c>
+      <c r="AP37">
+        <v>10.31712278106509</v>
+      </c>
+      <c r="AQ37">
+        <v>5.063702596674762</v>
+      </c>
+      <c r="AR37">
+        <v>4.467401457126845</v>
+      </c>
+      <c r="AS37">
+        <v>6.733449770189148</v>
+      </c>
+      <c r="AT37">
+        <v>5.849721323938244</v>
+      </c>
+      <c r="AU37">
+        <v>12.89644194756554</v>
+      </c>
+      <c r="AV37">
+        <v>13.3434456928839</v>
+      </c>
+      <c r="AW37">
+        <v>1.614438212411797</v>
+      </c>
+      <c r="AX37">
+        <v>1.903202460647729</v>
+      </c>
+      <c r="AY37">
+        <v>0.09372172969060974</v>
+      </c>
+      <c r="AZ37">
+        <v>0.1166998371630179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:52">
+      <c r="A38" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="2">
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="2">
+        <v>43876</v>
+      </c>
+      <c r="D38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>76</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>76</v>
+      </c>
+      <c r="M38">
+        <v>10</v>
+      </c>
+      <c r="N38">
+        <v>12</v>
+      </c>
+      <c r="O38">
+        <v>3</v>
+      </c>
+      <c r="P38">
+        <v>7</v>
+      </c>
+      <c r="Q38">
+        <v>21</v>
+      </c>
+      <c r="R38">
+        <v>16</v>
+      </c>
+      <c r="S38">
+        <v>2</v>
+      </c>
+      <c r="T38">
+        <v>5</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>1.61</v>
+      </c>
+      <c r="Z38">
+        <v>3.8</v>
+      </c>
+      <c r="AA38">
+        <v>5.5</v>
+      </c>
+      <c r="AB38">
+        <v>0.02203136299246141</v>
+      </c>
+      <c r="AC38">
+        <v>0.5990866494298988</v>
+      </c>
+      <c r="AD38">
+        <v>0.2411265317443807</v>
+      </c>
+      <c r="AE38">
+        <v>0.1597868188257204</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG38">
+        <v>0.6</v>
+      </c>
+      <c r="AH38">
+        <v>2.074979228938552</v>
+      </c>
+      <c r="AI38">
+        <v>0.6822066408970383</v>
+      </c>
+      <c r="AJ38">
+        <v>2.731009070294785</v>
+      </c>
+      <c r="AK38">
+        <v>1.841836734693878</v>
+      </c>
+      <c r="AL38">
+        <v>0.889172335600907</v>
+      </c>
+      <c r="AM38">
+        <v>0.804822695035461</v>
+      </c>
+      <c r="AN38">
+        <v>0.3809929078014184</v>
+      </c>
+      <c r="AO38">
+        <v>14.25174825174825</v>
+      </c>
+      <c r="AP38">
+        <v>8.831668331668332</v>
+      </c>
+      <c r="AQ38">
+        <v>6.290126582278481</v>
+      </c>
+      <c r="AR38">
+        <v>3.61620253164557</v>
+      </c>
+      <c r="AS38">
+        <v>7.961621669469769</v>
+      </c>
+      <c r="AT38">
+        <v>5.215465800022763</v>
+      </c>
+      <c r="AU38">
+        <v>12.44489588623667</v>
+      </c>
+      <c r="AV38">
+        <v>13.62061960385983</v>
+      </c>
+      <c r="AW38">
+        <v>1.406084017382907</v>
+      </c>
+      <c r="AX38">
+        <v>2.070980202800579</v>
+      </c>
+      <c r="AY38">
+        <v>0.06132303235152101</v>
+      </c>
+      <c r="AZ38">
+        <v>0.1313375181071946</v>
+      </c>
+    </row>
+    <row r="39" spans="1:52">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="2">
+        <v>43885</v>
+      </c>
+      <c r="D39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>76</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M39">
+        <v>16</v>
+      </c>
+      <c r="N39">
+        <v>10</v>
+      </c>
+      <c r="O39">
+        <v>7</v>
+      </c>
+      <c r="P39">
+        <v>4</v>
+      </c>
+      <c r="Q39">
+        <v>20</v>
+      </c>
+      <c r="R39">
+        <v>17</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>7</v>
+      </c>
+      <c r="Z39">
+        <v>4.33</v>
+      </c>
+      <c r="AA39">
+        <v>1.44</v>
+      </c>
+      <c r="AB39">
+        <v>0.02274948983955912</v>
+      </c>
+      <c r="AC39">
+        <v>0.1201076530175837</v>
+      </c>
+      <c r="AD39">
+        <v>0.2081973923775309</v>
+      </c>
+      <c r="AE39">
+        <v>0.6716949546048853</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG39">
+        <v>0.12</v>
+      </c>
+      <c r="AH39">
+        <v>0.6141496649014346</v>
+      </c>
+      <c r="AI39">
+        <v>2.159329896897765</v>
+      </c>
+      <c r="AJ39">
+        <v>2.816872427983539</v>
+      </c>
+      <c r="AK39">
+        <v>0.845679012345679</v>
+      </c>
+      <c r="AL39">
+        <v>1.97119341563786</v>
+      </c>
+      <c r="AM39">
+        <v>0.3919753086419753</v>
+      </c>
+      <c r="AN39">
+        <v>0.8744855967078189</v>
+      </c>
+      <c r="AO39">
+        <v>9.316814159292035</v>
+      </c>
+      <c r="AP39">
+        <v>14.09026548672566</v>
+      </c>
+      <c r="AQ39">
+        <v>3.729537366548043</v>
+      </c>
+      <c r="AR39">
+        <v>6.366548042704626</v>
+      </c>
+      <c r="AS39">
+        <v>5.587276792743991</v>
+      </c>
+      <c r="AT39">
+        <v>7.723717444021033</v>
+      </c>
+      <c r="AU39">
+        <v>13.76036036036036</v>
+      </c>
+      <c r="AV39">
+        <v>12.53693693693694</v>
+      </c>
+      <c r="AW39">
+        <v>2</v>
+      </c>
+      <c r="AX39">
+        <v>1.753086419753086</v>
+      </c>
+      <c r="AY39">
+        <v>0.08465608465608465</v>
+      </c>
+      <c r="AZ39">
+        <v>0.08465608465608465</v>
+      </c>
+    </row>
+    <row r="40" spans="1:52">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="2">
+        <v>43892</v>
+      </c>
+      <c r="D40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>77</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>77</v>
+      </c>
+      <c r="M40">
+        <v>26</v>
+      </c>
+      <c r="N40">
+        <v>7</v>
+      </c>
+      <c r="O40">
+        <v>9</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>13</v>
+      </c>
+      <c r="R40">
+        <v>15</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>3</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>1.14</v>
+      </c>
+      <c r="Z40">
+        <v>8.5</v>
+      </c>
+      <c r="AA40">
+        <v>13</v>
+      </c>
+      <c r="AB40">
+        <v>0.02392103940091557</v>
+      </c>
+      <c r="AC40">
+        <v>0.8532719430552248</v>
+      </c>
+      <c r="AD40">
+        <v>0.09372601942261384</v>
+      </c>
+      <c r="AE40">
+        <v>0.05300203752216136</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG40">
+        <v>0.84</v>
+      </c>
+      <c r="AH40">
+        <v>2.667311214378226</v>
+      </c>
+      <c r="AI40">
+        <v>0.2218239794846467</v>
+      </c>
+      <c r="AJ40">
+        <v>3.244705882352941</v>
+      </c>
+      <c r="AK40">
+        <v>2.670588235294117</v>
+      </c>
+      <c r="AL40">
+        <v>0.5741176470588235</v>
+      </c>
+      <c r="AM40">
+        <v>1.2</v>
+      </c>
+      <c r="AN40">
+        <v>0.2611764705882353</v>
+      </c>
+      <c r="AO40">
+        <v>18.04237288135593</v>
+      </c>
+      <c r="AP40">
+        <v>7.148305084745763</v>
+      </c>
+      <c r="AQ40">
+        <v>8.017021276595745</v>
+      </c>
+      <c r="AR40">
+        <v>2.6</v>
+      </c>
+      <c r="AS40">
+        <v>10.02535160476019</v>
+      </c>
+      <c r="AT40">
+        <v>4.548305084745763</v>
+      </c>
+      <c r="AU40">
+        <v>11.30603448275862</v>
+      </c>
+      <c r="AV40">
+        <v>12.87068965517241</v>
+      </c>
+      <c r="AW40">
+        <v>1.203389830508474</v>
+      </c>
+      <c r="AX40">
+        <v>2.033898305084746</v>
+      </c>
+      <c r="AY40">
+        <v>0.05084745762711865</v>
+      </c>
+      <c r="AZ40">
+        <v>0.1228813559322034</v>
+      </c>
+    </row>
+    <row r="41" spans="1:52">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="2">
+        <v>43897</v>
+      </c>
+      <c r="D41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>77</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>77</v>
+      </c>
+      <c r="M41">
+        <v>3</v>
+      </c>
+      <c r="N41">
+        <v>15</v>
+      </c>
+      <c r="O41">
+        <v>2</v>
+      </c>
+      <c r="P41">
+        <v>6</v>
+      </c>
+      <c r="Q41">
+        <v>13</v>
+      </c>
+      <c r="R41">
+        <v>12</v>
+      </c>
+      <c r="S41">
+        <v>4</v>
+      </c>
+      <c r="T41">
+        <v>3</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>8.5</v>
+      </c>
+      <c r="Z41">
+        <v>4.75</v>
+      </c>
+      <c r="AA41">
+        <v>1.33</v>
+      </c>
+      <c r="AB41">
+        <v>0.02668435795370779</v>
+      </c>
+      <c r="AC41">
+        <v>0.09096270086982162</v>
+      </c>
+      <c r="AD41">
+        <v>0.1838419578357659</v>
+      </c>
+      <c r="AE41">
+        <v>0.7251953412944124</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG41">
+        <v>0.08</v>
+      </c>
+      <c r="AH41">
+        <v>0.4559059179476074</v>
+      </c>
+      <c r="AI41">
+        <v>2.35693778909972</v>
+      </c>
+      <c r="AJ41">
+        <v>2.995348837209303</v>
+      </c>
+      <c r="AK41">
+        <v>0.7286821705426356</v>
+      </c>
+      <c r="AL41">
+        <v>2.266666666666667</v>
+      </c>
+      <c r="AM41">
+        <v>0.3198757763975155</v>
+      </c>
+      <c r="AN41">
+        <v>0.9891304347826086</v>
+      </c>
+      <c r="AO41">
+        <v>8.866323907455012</v>
+      </c>
+      <c r="AP41">
+        <v>14.65552699228792</v>
+      </c>
+      <c r="AQ41">
+        <v>3.467866323907455</v>
+      </c>
+      <c r="AR41">
+        <v>6.586118251928021</v>
+      </c>
+      <c r="AS41">
+        <v>5.398457583547557</v>
+      </c>
+      <c r="AT41">
+        <v>8.069408740359899</v>
+      </c>
+      <c r="AU41">
+        <v>13.49081364829396</v>
+      </c>
+      <c r="AV41">
+        <v>11.61942257217848</v>
+      </c>
+      <c r="AW41">
+        <v>2.124681933842239</v>
+      </c>
+      <c r="AX41">
+        <v>1.702290076335878</v>
+      </c>
+      <c r="AY41">
+        <v>0.09923664122137404</v>
+      </c>
+      <c r="AZ41">
+        <v>0.07888040712468193</v>
+      </c>
+    </row>
+    <row r="42" spans="1:52">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="2">
+        <v>43986</v>
+      </c>
+      <c r="D42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>77</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>77</v>
+      </c>
+      <c r="M42">
+        <v>26</v>
+      </c>
+      <c r="N42">
+        <v>4</v>
+      </c>
+      <c r="O42">
+        <v>5</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>11</v>
+      </c>
+      <c r="R42">
+        <v>12</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>1.16</v>
+      </c>
+      <c r="Z42">
+        <v>7</v>
+      </c>
+      <c r="AA42">
+        <v>15</v>
+      </c>
+      <c r="AB42">
+        <v>0.023864258347017</v>
+      </c>
+      <c r="AC42">
+        <v>0.8382047071702244</v>
+      </c>
+      <c r="AD42">
+        <v>0.1189928845101259</v>
+      </c>
+      <c r="AE42">
+        <v>0.04280240831964967</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG42">
+        <v>0.84</v>
+      </c>
+      <c r="AH42">
+        <v>2.667311214378226</v>
+      </c>
+      <c r="AI42">
+        <v>0.2218239794846467</v>
+      </c>
+      <c r="AJ42">
+        <v>3.244705882352941</v>
+      </c>
+      <c r="AK42">
+        <v>2.670588235294117</v>
+      </c>
+      <c r="AL42">
+        <v>0.5741176470588235</v>
+      </c>
+      <c r="AM42">
+        <v>1.2</v>
+      </c>
+      <c r="AN42">
+        <v>0.2611764705882353</v>
+      </c>
+      <c r="AO42">
+        <v>18.04237288135593</v>
+      </c>
+      <c r="AP42">
+        <v>7.148305084745763</v>
+      </c>
+      <c r="AQ42">
+        <v>8.017021276595745</v>
+      </c>
+      <c r="AR42">
+        <v>2.6</v>
+      </c>
+      <c r="AS42">
+        <v>10.02535160476019</v>
+      </c>
+      <c r="AT42">
+        <v>4.548305084745763</v>
+      </c>
+      <c r="AU42">
+        <v>11.30603448275862</v>
+      </c>
+      <c r="AV42">
+        <v>12.87068965517241</v>
+      </c>
+      <c r="AW42">
+        <v>1.203389830508474</v>
+      </c>
+      <c r="AX42">
+        <v>2.033898305084746</v>
+      </c>
+      <c r="AY42">
+        <v>0.05084745762711865</v>
+      </c>
+      <c r="AZ42">
+        <v>0.1228813559322034</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="2">
+        <v>43992</v>
+      </c>
+      <c r="D43" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43" t="s">
+        <v>77</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="K43" t="s">
+        <v>76</v>
+      </c>
+      <c r="M43">
+        <v>10</v>
+      </c>
+      <c r="N43">
+        <v>11</v>
+      </c>
+      <c r="O43">
+        <v>4</v>
+      </c>
+      <c r="P43">
+        <v>4</v>
+      </c>
+      <c r="Q43">
+        <v>18</v>
+      </c>
+      <c r="R43">
+        <v>17</v>
+      </c>
+      <c r="S43">
+        <v>5</v>
+      </c>
+      <c r="T43">
+        <v>3</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>9</v>
+      </c>
+      <c r="Z43">
+        <v>4.5</v>
+      </c>
+      <c r="AA43">
+        <v>1.36</v>
+      </c>
+      <c r="AB43">
+        <v>0.02287581699346404</v>
+      </c>
+      <c r="AC43">
+        <v>0.08823529411764706</v>
+      </c>
+      <c r="AD43">
+        <v>0.1993464052287582</v>
+      </c>
+      <c r="AE43">
+        <v>0.7124183006535947</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG43">
+        <v>0.08</v>
+      </c>
+      <c r="AH43">
+        <v>0.4559059179476074</v>
+      </c>
+      <c r="AI43">
+        <v>2.35693778909972</v>
+      </c>
+      <c r="AJ43">
+        <v>2.995348837209303</v>
+      </c>
+      <c r="AK43">
+        <v>0.7286821705426356</v>
+      </c>
+      <c r="AL43">
+        <v>2.266666666666667</v>
+      </c>
+      <c r="AM43">
+        <v>0.3198757763975155</v>
+      </c>
+      <c r="AN43">
+        <v>0.9891304347826086</v>
+      </c>
+      <c r="AO43">
+        <v>8.866323907455012</v>
+      </c>
+      <c r="AP43">
+        <v>14.65552699228792</v>
+      </c>
+      <c r="AQ43">
+        <v>3.467866323907455</v>
+      </c>
+      <c r="AR43">
+        <v>6.586118251928021</v>
+      </c>
+      <c r="AS43">
+        <v>5.398457583547557</v>
+      </c>
+      <c r="AT43">
+        <v>8.069408740359899</v>
+      </c>
+      <c r="AU43">
+        <v>13.49081364829396</v>
+      </c>
+      <c r="AV43">
+        <v>11.61942257217848</v>
+      </c>
+      <c r="AW43">
+        <v>2.124681933842239</v>
+      </c>
+      <c r="AX43">
+        <v>1.702290076335878</v>
+      </c>
+      <c r="AY43">
+        <v>0.09923664122137404</v>
+      </c>
+      <c r="AZ43">
+        <v>0.07888040712468193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:52">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="2">
+        <v>43999</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44" t="s">
+        <v>76</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>75</v>
+      </c>
+      <c r="M44">
+        <v>5</v>
+      </c>
+      <c r="N44">
+        <v>16</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>4</v>
+      </c>
+      <c r="Q44">
+        <v>16</v>
+      </c>
+      <c r="R44">
+        <v>21</v>
+      </c>
+      <c r="S44">
+        <v>3</v>
+      </c>
+      <c r="T44">
+        <v>2</v>
+      </c>
+      <c r="U44">
+        <v>3</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>5.5</v>
+      </c>
+      <c r="Z44">
+        <v>4</v>
+      </c>
+      <c r="AA44">
+        <v>1.57</v>
+      </c>
+      <c r="AB44">
+        <v>0.02292028565913913</v>
+      </c>
+      <c r="AC44">
+        <v>0.1588978961590427</v>
+      </c>
+      <c r="AD44">
+        <v>0.2270797143408609</v>
+      </c>
+      <c r="AE44">
+        <v>0.6140223895000965</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG44">
+        <v>0.16</v>
+      </c>
+      <c r="AH44">
+        <v>0.7631171347433517</v>
+      </c>
+      <c r="AI44">
+        <v>1.989323606801409</v>
+      </c>
+      <c r="AJ44">
+        <v>2.700507614213198</v>
+      </c>
+      <c r="AK44">
+        <v>0.9450084602368867</v>
+      </c>
+      <c r="AL44">
+        <v>1.755499153976311</v>
+      </c>
+      <c r="AM44">
+        <v>0.3908629441624366</v>
+      </c>
+      <c r="AN44">
+        <v>0.7343485617597293</v>
+      </c>
+      <c r="AO44">
+        <v>9.772939346811819</v>
+      </c>
+      <c r="AP44">
+        <v>13.65163297045101</v>
+      </c>
+      <c r="AQ44">
+        <v>3.689873417721519</v>
+      </c>
+      <c r="AR44">
+        <v>5.862341772151899</v>
+      </c>
+      <c r="AS44">
+        <v>6.0830659290903</v>
+      </c>
+      <c r="AT44">
+        <v>7.789291198299111</v>
+      </c>
+      <c r="AU44">
+        <v>13.45945945945946</v>
+      </c>
+      <c r="AV44">
+        <v>12.69475357710652</v>
+      </c>
+      <c r="AW44">
+        <v>2.026073619631902</v>
+      </c>
+      <c r="AX44">
+        <v>1.828220858895706</v>
+      </c>
+      <c r="AY44">
+        <v>0.1088957055214724</v>
+      </c>
+      <c r="AZ44">
+        <v>0.1073619631901841</v>
+      </c>
+    </row>
+    <row r="45" spans="1:52">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="2">
         <v>44005</v>
       </c>
-      <c r="E37" t="s">
-        <v>55</v>
-      </c>
-      <c r="F37" t="s">
-        <v>59</v>
-      </c>
-      <c r="G37">
+      <c r="D45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45">
         <v>3</v>
       </c>
-      <c r="H37">
+      <c r="G45">
         <v>4</v>
       </c>
-      <c r="I37" t="s">
-        <v>72</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37" t="s">
-        <v>72</v>
-      </c>
-      <c r="N37">
+      <c r="H45" t="s">
+        <v>76</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" t="s">
+        <v>76</v>
+      </c>
+      <c r="M45">
         <v>15</v>
       </c>
-      <c r="O37">
+      <c r="N45">
         <v>8</v>
       </c>
-      <c r="P37">
+      <c r="O45">
         <v>8</v>
       </c>
-      <c r="Q37">
+      <c r="P45">
         <v>6</v>
       </c>
-      <c r="R37">
+      <c r="Q45">
         <v>15</v>
       </c>
-      <c r="S37">
+      <c r="R45">
         <v>13</v>
       </c>
-      <c r="T37">
+      <c r="S45">
         <v>2</v>
       </c>
-      <c r="U37">
-        <v>1</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="Z37">
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
         <v>1.28</v>
       </c>
-      <c r="AA37">
+      <c r="Z45">
         <v>5</v>
       </c>
-      <c r="AB37">
+      <c r="AA45">
         <v>12</v>
       </c>
-      <c r="AC37">
+      <c r="AB45">
         <v>0.02152777777777774</v>
       </c>
-      <c r="AD37">
+      <c r="AC45">
         <v>0.7597222222222223</v>
       </c>
-      <c r="AE37">
+      <c r="AD45">
         <v>0.1784722222222223</v>
       </c>
-      <c r="AF37">
+      <c r="AE45">
         <v>0.06180555555555559</v>
       </c>
-      <c r="AG37">
+      <c r="AF45" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG45">
         <v>0.76</v>
       </c>
-      <c r="AH37">
+      <c r="AH45">
         <v>2.476894328050164</v>
       </c>
-      <c r="AI37">
+      <c r="AI45">
         <v>0.3623624223330036</v>
       </c>
-      <c r="AJ37">
+      <c r="AJ45">
         <v>3.111940298507463</v>
       </c>
-      <c r="AK37">
+      <c r="AK45">
         <v>2.396588486140725</v>
       </c>
-      <c r="AL37">
+      <c r="AL45">
         <v>0.7153518123667377</v>
       </c>
-      <c r="AM37">
+      <c r="AM45">
         <v>1.099147121535181</v>
       </c>
-      <c r="AN37">
+      <c r="AN45">
         <v>0.3187633262260128</v>
       </c>
-      <c r="AO37">
+      <c r="AO45">
         <v>17.52505446623094</v>
       </c>
-      <c r="AP37">
+      <c r="AP45">
         <v>8.283224400871459</v>
       </c>
-      <c r="AQ37">
+      <c r="AQ45">
         <v>7.545454545454546</v>
       </c>
-      <c r="AR37">
+      <c r="AR45">
         <v>3.108647450110865</v>
       </c>
-      <c r="AS37">
+      <c r="AS45">
         <v>9.979599920776394</v>
       </c>
-      <c r="AT37">
+      <c r="AT45">
         <v>5.174576950760594</v>
       </c>
-      <c r="AU37">
+      <c r="AU45">
         <v>11.95796460176991</v>
       </c>
-      <c r="AV37">
+      <c r="AV45">
         <v>13.55973451327434</v>
       </c>
-      <c r="AW37">
+      <c r="AW45">
         <v>1.258695652173913</v>
       </c>
-      <c r="AX37">
+      <c r="AX45">
         <v>1.991304347826087</v>
       </c>
-      <c r="AY37">
+      <c r="AY45">
         <v>0.05434782608695652</v>
       </c>
-      <c r="AZ37">
+      <c r="AZ45">
         <v>0.1304347826086956</v>
       </c>
     </row>
